--- a/run-data.xlsx
+++ b/run-data.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,6 +631,494 @@
         <v>41</v>
       </c>
     </row>
+    <row r="2" spans="1:42">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>-27</v>
+      </c>
+      <c r="D2">
+        <v>0.5971943887775552</v>
+      </c>
+      <c r="E2">
+        <v>3.452</v>
+      </c>
+      <c r="F2">
+        <v>15.482</v>
+      </c>
+      <c r="G2">
+        <v>0.1596330473143043</v>
+      </c>
+      <c r="H2">
+        <v>0.0008404412796481903</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>40</v>
+      </c>
+      <c r="R2">
+        <v>202</v>
+      </c>
+      <c r="S2">
+        <v>42</v>
+      </c>
+      <c r="U2">
+        <v>32</v>
+      </c>
+      <c r="W2">
+        <v>32</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>32</v>
+      </c>
+      <c r="AB2">
+        <v>10000</v>
+      </c>
+      <c r="AC2">
+        <v>100000</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0.05</v>
+      </c>
+      <c r="AF2">
+        <v>10000</v>
+      </c>
+      <c r="AG2">
+        <v>200</v>
+      </c>
+      <c r="AH2">
+        <v>4</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>32</v>
+      </c>
+      <c r="AK2">
+        <v>0.99</v>
+      </c>
+      <c r="AL2">
+        <v>0.001</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
+      <c r="AP2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>-27</v>
+      </c>
+      <c r="D3">
+        <v>0.5511022044088176</v>
+      </c>
+      <c r="E3">
+        <v>3.432</v>
+      </c>
+      <c r="F3">
+        <v>16.05</v>
+      </c>
+      <c r="G3">
+        <v>0.8808370375314206</v>
+      </c>
+      <c r="H3">
+        <v>0.0008662463538013268</v>
+      </c>
+      <c r="I3">
+        <v>2000</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>202</v>
+      </c>
+      <c r="S3">
+        <v>42</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>32</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>16</v>
+      </c>
+      <c r="AB3">
+        <v>10000</v>
+      </c>
+      <c r="AC3">
+        <v>100000</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0.05</v>
+      </c>
+      <c r="AF3">
+        <v>5000</v>
+      </c>
+      <c r="AG3">
+        <v>50</v>
+      </c>
+      <c r="AH3">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>64</v>
+      </c>
+      <c r="AK3">
+        <v>0.99</v>
+      </c>
+      <c r="AL3">
+        <v>0.001</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>-27</v>
+      </c>
+      <c r="D4">
+        <v>0.5470941883767535</v>
+      </c>
+      <c r="E4">
+        <v>3.428</v>
+      </c>
+      <c r="F4">
+        <v>16.05</v>
+      </c>
+      <c r="G4">
+        <v>0.6412532957378828</v>
+      </c>
+      <c r="H4">
+        <v>0.0008546528738872278</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>202</v>
+      </c>
+      <c r="S4">
+        <v>42</v>
+      </c>
+      <c r="U4">
+        <v>32</v>
+      </c>
+      <c r="W4">
+        <v>16</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>32</v>
+      </c>
+      <c r="AB4">
+        <v>10000</v>
+      </c>
+      <c r="AC4">
+        <v>100000</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0.05</v>
+      </c>
+      <c r="AF4">
+        <v>10000</v>
+      </c>
+      <c r="AG4">
+        <v>100</v>
+      </c>
+      <c r="AH4">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>16</v>
+      </c>
+      <c r="AK4">
+        <v>0.99</v>
+      </c>
+      <c r="AL4">
+        <v>0.0001</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>10</v>
+      </c>
+      <c r="AP4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>-27</v>
+      </c>
+      <c r="D5">
+        <v>0.5671342685370742</v>
+      </c>
+      <c r="E5">
+        <v>3.498</v>
+      </c>
+      <c r="F5">
+        <v>15.874</v>
+      </c>
+      <c r="G5">
+        <v>0.5144539725766142</v>
+      </c>
+      <c r="H5">
+        <v>0.000841032523382614</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>202</v>
+      </c>
+      <c r="S5">
+        <v>42</v>
+      </c>
+      <c r="U5">
+        <v>16</v>
+      </c>
+      <c r="W5">
+        <v>16</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>16</v>
+      </c>
+      <c r="AB5">
+        <v>10000</v>
+      </c>
+      <c r="AC5">
+        <v>100000</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0.05</v>
+      </c>
+      <c r="AF5">
+        <v>1000</v>
+      </c>
+      <c r="AG5">
+        <v>50</v>
+      </c>
+      <c r="AH5">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>64</v>
+      </c>
+      <c r="AK5">
+        <v>0.99</v>
+      </c>
+      <c r="AL5">
+        <v>0.001</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>10</v>
+      </c>
+      <c r="AP5">
+        <v>-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/run-data.xlsx
+++ b/run-data.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>eval_avg_ep_rew</t>
-  </si>
-  <si>
-    <t>eval_max_ep_rew</t>
-  </si>
-  <si>
-    <t>eval_min_ep_rew</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>total_time_taken(m)</t>
   </si>
   <si>
     <t>eval_ach_goal_perc</t>
@@ -128,6 +122,9 @@
   </si>
   <si>
     <t>A_critic_agg_weight</t>
+  </si>
+  <si>
+    <t>O_num_agents</t>
   </si>
   <si>
     <t>O_reach_goal_rew</t>
@@ -491,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +612,457 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2">
+        <v>0.6579903721809387</v>
+      </c>
+      <c r="B2">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="C2">
+        <v>3.41</v>
+      </c>
+      <c r="D2">
+        <v>9.24</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>128</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>202</v>
+      </c>
+      <c r="Q2">
+        <v>42</v>
+      </c>
+      <c r="S2">
+        <v>32</v>
+      </c>
+      <c r="U2">
+        <v>32</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>32</v>
+      </c>
+      <c r="Z2">
+        <v>0.95</v>
+      </c>
+      <c r="AA2">
+        <v>0.01</v>
+      </c>
+      <c r="AB2">
+        <v>32</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0.9</v>
+      </c>
+      <c r="AF2">
+        <v>0.001</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>5</v>
+      </c>
+      <c r="AI2">
+        <v>0.8</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9</v>
+      </c>
+      <c r="AK2">
+        <v>8</v>
+      </c>
+      <c r="AL2">
+        <v>10</v>
+      </c>
+      <c r="AM2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3">
+        <v>0.603220264116923</v>
+      </c>
+      <c r="B3">
+        <v>0.2626262626262627</v>
+      </c>
+      <c r="C3">
+        <v>3.37</v>
+      </c>
+      <c r="D3">
+        <v>9.15</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>202</v>
+      </c>
+      <c r="Q3">
+        <v>42</v>
+      </c>
+      <c r="S3">
+        <v>32</v>
+      </c>
+      <c r="U3">
+        <v>32</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>32</v>
+      </c>
+      <c r="Z3">
+        <v>0.95</v>
+      </c>
+      <c r="AA3">
+        <v>0.01</v>
+      </c>
+      <c r="AB3">
+        <v>32</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
+        <v>0.2</v>
+      </c>
+      <c r="AE3">
+        <v>0.9</v>
+      </c>
+      <c r="AF3">
+        <v>0.001</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3">
+        <v>0.8</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9</v>
+      </c>
+      <c r="AK3">
+        <v>8</v>
+      </c>
+      <c r="AL3">
+        <v>10</v>
+      </c>
+      <c r="AM3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4">
+        <v>0.5995295246442159</v>
+      </c>
+      <c r="B4">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="C4">
+        <v>3.35</v>
+      </c>
+      <c r="D4">
+        <v>8.98</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>128</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>202</v>
+      </c>
+      <c r="Q4">
+        <v>42</v>
+      </c>
+      <c r="S4">
+        <v>32</v>
+      </c>
+      <c r="U4">
+        <v>32</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>32</v>
+      </c>
+      <c r="Z4">
+        <v>0.95</v>
+      </c>
+      <c r="AA4">
+        <v>0.01</v>
+      </c>
+      <c r="AB4">
+        <v>32</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>0.2</v>
+      </c>
+      <c r="AE4">
+        <v>0.95</v>
+      </c>
+      <c r="AF4">
+        <v>0.001</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>0.2</v>
+      </c>
+      <c r="AJ4">
+        <v>0.75</v>
+      </c>
+      <c r="AK4">
+        <v>8</v>
+      </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5">
+        <v>0.5993634541829427</v>
+      </c>
+      <c r="B5">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="C5">
+        <v>3.48</v>
+      </c>
+      <c r="D5">
+        <v>8.82</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>202</v>
+      </c>
+      <c r="Q5">
+        <v>42</v>
+      </c>
+      <c r="S5">
+        <v>32</v>
+      </c>
+      <c r="U5">
+        <v>32</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>32</v>
+      </c>
+      <c r="Z5">
+        <v>0.95</v>
+      </c>
+      <c r="AA5">
+        <v>0.01</v>
+      </c>
+      <c r="AB5">
+        <v>32</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>0.2</v>
+      </c>
+      <c r="AE5">
+        <v>0.95</v>
+      </c>
+      <c r="AF5">
+        <v>0.001</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ5">
+        <v>0.75</v>
+      </c>
+      <c r="AK5">
+        <v>8</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/run-data.xlsx
+++ b/run-data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>total_time_taken(m)</t>
   </si>
@@ -488,152 +491,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:40">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>8.225977023442587</v>
+        <v>17.1868955373764</v>
       </c>
       <c r="C2">
-        <v>0.7676767676767676</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D2">
-        <v>3.51</v>
+        <v>3.44</v>
       </c>
       <c r="E2">
-        <v>7.22</v>
+        <v>5.04</v>
       </c>
       <c r="F2">
         <v>500</v>
       </c>
       <c r="G2">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -705,7 +708,7 @@
         <v>0.99</v>
       </c>
       <c r="AG2">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH2" t="b">
         <v>1</v>
@@ -714,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL2">
         <v>8</v>
@@ -730,26 +733,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
       <c r="B3">
-        <v>7.850713523228963</v>
+        <v>17.36332482099533</v>
       </c>
       <c r="C3">
-        <v>0.696969696969697</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3">
-        <v>3.39</v>
+        <v>3.46</v>
       </c>
       <c r="E3">
-        <v>7.47</v>
+        <v>5.38</v>
       </c>
       <c r="F3">
         <v>500</v>
       </c>
       <c r="G3">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -821,7 +821,7 @@
         <v>0.99</v>
       </c>
       <c r="AG3">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH3" t="b">
         <v>1</v>
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL3">
         <v>8</v>
@@ -846,26 +846,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
       <c r="B4">
-        <v>8.151010298728943</v>
+        <v>16.6944969813029</v>
       </c>
       <c r="C4">
-        <v>0.494949494949495</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D4">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="E4">
-        <v>7.97</v>
+        <v>5.03</v>
       </c>
       <c r="F4">
         <v>500</v>
       </c>
       <c r="G4">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -937,7 +934,7 @@
         <v>0.99</v>
       </c>
       <c r="AG4">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH4" t="b">
         <v>1</v>
@@ -946,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL4">
         <v>8</v>
@@ -962,26 +959,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5">
-        <v>8.363858429590861</v>
+        <v>17.28511579036713</v>
       </c>
       <c r="C5">
-        <v>0.9595959595959596</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D5">
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
       <c r="E5">
-        <v>4.65</v>
+        <v>5.7</v>
       </c>
       <c r="F5">
         <v>500</v>
       </c>
       <c r="G5">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -1026,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="b">
         <v>1</v>
@@ -1065,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL5">
         <v>8</v>
@@ -1078,26 +1072,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
       <c r="B6">
-        <v>7.998418684800466</v>
+        <v>17.22905014753342</v>
       </c>
       <c r="C6">
-        <v>0.9393939393939394</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D6">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="E6">
-        <v>4.57</v>
+        <v>5.34</v>
       </c>
       <c r="F6">
         <v>500</v>
       </c>
       <c r="G6">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -1142,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="b">
         <v>1</v>
@@ -1181,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL6">
         <v>8</v>
@@ -1194,26 +1185,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
       <c r="B7">
-        <v>8.063262005647024</v>
+        <v>17.74451320568721</v>
       </c>
       <c r="C7">
-        <v>0.9393939393939394</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D7">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="E7">
-        <v>4.62</v>
+        <v>4.95</v>
       </c>
       <c r="F7">
         <v>500</v>
       </c>
       <c r="G7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -1258,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="b">
         <v>1</v>
@@ -1297,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL7">
         <v>8</v>
@@ -1310,20 +1298,17 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
       <c r="B8">
-        <v>8.277788503964741</v>
+        <v>8.618439360459645</v>
       </c>
       <c r="C8">
-        <v>0.4747474747474748</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="D8">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="E8">
-        <v>7.44</v>
+        <v>6.62</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -1413,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL8">
         <v>8</v>
@@ -1426,20 +1411,17 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
       <c r="B9">
-        <v>8.33741250038147</v>
+        <v>8.621116562684376</v>
       </c>
       <c r="C9">
-        <v>0.8383838383838383</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="D9">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
       <c r="E9">
-        <v>5.35</v>
+        <v>6.54</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -1529,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL9">
         <v>8</v>
@@ -1542,20 +1524,17 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
       <c r="B10">
-        <v>8.354466887315114</v>
+        <v>8.452017652988435</v>
       </c>
       <c r="C10">
-        <v>0.7676767676767676</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="D10">
         <v>3.4</v>
       </c>
       <c r="E10">
-        <v>5.68</v>
+        <v>5.09</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -1645,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL10">
         <v>8</v>
@@ -1658,26 +1637,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
       <c r="B11">
-        <v>8.071340429782868</v>
+        <v>10.0585554599762</v>
       </c>
       <c r="C11">
-        <v>0.5353535353535354</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="D11">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="E11">
-        <v>8.15</v>
+        <v>6.6</v>
       </c>
       <c r="F11">
         <v>500</v>
       </c>
       <c r="G11">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -1740,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE11">
         <v>0.2</v>
@@ -1749,7 +1725,7 @@
         <v>0.99</v>
       </c>
       <c r="AG11">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH11" t="b">
         <v>1</v>
@@ -1758,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL11">
         <v>8</v>
@@ -1774,26 +1750,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
       <c r="B12">
-        <v>8.029335864384969</v>
+        <v>9.761100788911184</v>
       </c>
       <c r="C12">
-        <v>0.5353535353535354</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D12">
         <v>3.45</v>
       </c>
       <c r="E12">
-        <v>7.99</v>
+        <v>6.85</v>
       </c>
       <c r="F12">
         <v>500</v>
       </c>
       <c r="G12">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -1856,7 +1829,7 @@
         <v>32</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE12">
         <v>0.2</v>
@@ -1865,7 +1838,7 @@
         <v>0.99</v>
       </c>
       <c r="AG12">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH12" t="b">
         <v>1</v>
@@ -1874,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL12">
         <v>8</v>
@@ -1890,26 +1863,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
       <c r="B13">
-        <v>8.08028316895167</v>
+        <v>9.606049486001332</v>
       </c>
       <c r="C13">
-        <v>0.6060606060606061</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D13">
-        <v>3.34</v>
+        <v>3.47</v>
       </c>
       <c r="E13">
-        <v>7.58</v>
+        <v>5.05</v>
       </c>
       <c r="F13">
         <v>500</v>
       </c>
       <c r="G13">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H13">
         <v>50</v>
@@ -1972,7 +1942,7 @@
         <v>32</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE13">
         <v>0.2</v>
@@ -1981,7 +1951,7 @@
         <v>0.99</v>
       </c>
       <c r="AG13">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH13" t="b">
         <v>1</v>
@@ -1990,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL13">
         <v>8</v>
@@ -2006,26 +1976,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
       <c r="B14">
-        <v>8.399812320868174</v>
+        <v>32.75069805383682</v>
       </c>
       <c r="C14">
-        <v>0.9191919191919192</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D14">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="E14">
-        <v>4.74</v>
+        <v>5.79</v>
       </c>
       <c r="F14">
         <v>500</v>
       </c>
       <c r="G14">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H14">
         <v>50</v>
@@ -2088,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE14">
         <v>0.2</v>
@@ -2109,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL14">
         <v>8</v>
@@ -2122,26 +2089,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
       <c r="B15">
-        <v>8.316136014461517</v>
+        <v>31.9890022555987</v>
       </c>
       <c r="C15">
-        <v>0.8585858585858586</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="D15">
-        <v>3.48</v>
+        <v>3.29</v>
       </c>
       <c r="E15">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="F15">
         <v>500</v>
       </c>
       <c r="G15">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H15">
         <v>50</v>
@@ -2204,7 +2168,7 @@
         <v>32</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE15">
         <v>0.2</v>
@@ -2225,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL15">
         <v>8</v>
@@ -2238,26 +2202,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
       <c r="B16">
-        <v>8.506227835019429</v>
+        <v>31.11713447570801</v>
       </c>
       <c r="C16">
-        <v>0.8585858585858586</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D16">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="E16">
-        <v>5.7</v>
+        <v>5.25</v>
       </c>
       <c r="F16">
         <v>500</v>
       </c>
       <c r="G16">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H16">
         <v>50</v>
@@ -2320,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE16">
         <v>0.2</v>
@@ -2341,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL16">
         <v>8</v>
@@ -2353,27 +2314,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
+    <row r="17" spans="2:40">
       <c r="B17">
-        <v>7.648121722539266</v>
+        <v>2.37390273809433</v>
       </c>
       <c r="C17">
         <v>0.4747474747474748</v>
       </c>
       <c r="D17">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="E17">
-        <v>8.220000000000001</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F17">
         <v>500</v>
       </c>
       <c r="G17">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H17">
         <v>50</v>
@@ -2436,7 +2394,7 @@
         <v>32</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE17">
         <v>0.2</v>
@@ -2445,7 +2403,7 @@
         <v>0.99</v>
       </c>
       <c r="AG17">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH17" t="b">
         <v>1</v>
@@ -2457,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL17">
         <v>8</v>
@@ -2469,27 +2427,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
+    <row r="18" spans="2:40">
       <c r="B18">
-        <v>7.984971292813619</v>
+        <v>2.411219541231791</v>
       </c>
       <c r="C18">
-        <v>0.5151515151515151</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="D18">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="E18">
-        <v>7.94</v>
+        <v>7.97</v>
       </c>
       <c r="F18">
         <v>500</v>
       </c>
       <c r="G18">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H18">
         <v>50</v>
@@ -2552,7 +2507,7 @@
         <v>32</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE18">
         <v>0.2</v>
@@ -2561,7 +2516,7 @@
         <v>0.99</v>
       </c>
       <c r="AG18">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH18" t="b">
         <v>1</v>
@@ -2573,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL18">
         <v>8</v>
@@ -2585,27 +2540,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
+    <row r="19" spans="2:40">
       <c r="B19">
-        <v>8.190139492352804</v>
+        <v>2.498734982808431</v>
       </c>
       <c r="C19">
-        <v>0.5353535353535354</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D19">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="E19">
-        <v>8.06</v>
+        <v>7.14</v>
       </c>
       <c r="F19">
         <v>500</v>
       </c>
       <c r="G19">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H19">
         <v>50</v>
@@ -2668,7 +2620,7 @@
         <v>32</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE19">
         <v>0.2</v>
@@ -2677,7 +2629,7 @@
         <v>0.99</v>
       </c>
       <c r="AG19">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH19" t="b">
         <v>1</v>
@@ -2689,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL19">
         <v>8</v>
@@ -2701,21 +2653,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
+    <row r="20" spans="2:40">
       <c r="B20">
-        <v>7.456783211231231</v>
+        <v>15.75590524673462</v>
       </c>
       <c r="C20">
-        <v>0.3838383838383838</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="D20">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="E20">
-        <v>8.74</v>
+        <v>4.87</v>
       </c>
       <c r="F20">
         <v>500</v>
@@ -2784,7 +2733,7 @@
         <v>32</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE20">
         <v>0.2</v>
@@ -2793,7 +2742,7 @@
         <v>0.99</v>
       </c>
       <c r="AG20">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH20" t="b">
         <v>1</v>
@@ -2805,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL20">
         <v>8</v>
@@ -2817,21 +2766,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
+    <row r="21" spans="2:40">
       <c r="B21">
-        <v>7.490543003877004</v>
+        <v>15.5285962899526</v>
       </c>
       <c r="C21">
-        <v>0.4242424242424243</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="D21">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="E21">
-        <v>8.720000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="F21">
         <v>500</v>
@@ -2900,7 +2846,7 @@
         <v>32</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE21">
         <v>0.2</v>
@@ -2909,7 +2855,7 @@
         <v>0.99</v>
       </c>
       <c r="AG21">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH21" t="b">
         <v>1</v>
@@ -2921,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL21">
         <v>8</v>
@@ -2933,21 +2879,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
+    <row r="22" spans="2:40">
       <c r="B22">
-        <v>7.847970811525981</v>
+        <v>15.99484968980153</v>
       </c>
       <c r="C22">
-        <v>0.3636363636363636</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="D22">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="E22">
-        <v>8.66</v>
+        <v>7.12</v>
       </c>
       <c r="F22">
         <v>500</v>
@@ -3016,7 +2959,7 @@
         <v>32</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE22">
         <v>0.2</v>
@@ -3025,7 +2968,7 @@
         <v>0.99</v>
       </c>
       <c r="AG22">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH22" t="b">
         <v>1</v>
@@ -3037,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL22">
         <v>8</v>
@@ -3049,27 +2992,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
+    <row r="23" spans="2:40">
       <c r="B23">
-        <v>7.719729876518249</v>
+        <v>2.49281804561615</v>
       </c>
       <c r="C23">
-        <v>0.4141414141414141</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D23">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
       <c r="E23">
-        <v>8.640000000000001</v>
+        <v>7.83</v>
       </c>
       <c r="F23">
         <v>500</v>
       </c>
       <c r="G23">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>50</v>
@@ -3114,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="b">
         <v>1</v>
@@ -3132,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE23">
         <v>0.2</v>
@@ -3141,7 +3081,7 @@
         <v>0.99</v>
       </c>
       <c r="AG23">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH23" t="b">
         <v>1</v>
@@ -3165,27 +3105,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
+    <row r="24" spans="2:40">
       <c r="B24">
-        <v>7.652094463507335</v>
+        <v>2.454122138023377</v>
       </c>
       <c r="C24">
-        <v>0.6161616161616161</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="D24">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="E24">
-        <v>7.81</v>
+        <v>7.86</v>
       </c>
       <c r="F24">
         <v>500</v>
       </c>
       <c r="G24">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H24">
         <v>50</v>
@@ -3230,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="b">
         <v>1</v>
@@ -3248,7 +3185,7 @@
         <v>32</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE24">
         <v>0.2</v>
@@ -3257,7 +3194,7 @@
         <v>0.99</v>
       </c>
       <c r="AG24">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH24" t="b">
         <v>1</v>
@@ -3281,27 +3218,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
+    <row r="25" spans="2:40">
       <c r="B25">
-        <v>8.239939709504446</v>
+        <v>2.423154274622599</v>
       </c>
       <c r="C25">
-        <v>0.5050505050505051</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="D25">
-        <v>3.53</v>
+        <v>3.38</v>
       </c>
       <c r="E25">
-        <v>8.449999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="F25">
         <v>500</v>
       </c>
       <c r="G25">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H25">
         <v>50</v>
@@ -3346,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="b">
         <v>1</v>
@@ -3364,7 +3298,7 @@
         <v>32</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE25">
         <v>0.2</v>
@@ -3373,7 +3307,7 @@
         <v>0.99</v>
       </c>
       <c r="AG25">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH25" t="b">
         <v>1</v>
@@ -3397,21 +3331,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
+    <row r="26" spans="2:40">
       <c r="B26">
-        <v>7.995126887162527</v>
+        <v>10.00014497439067</v>
       </c>
       <c r="C26">
-        <v>0.4747474747474748</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="D26">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="E26">
-        <v>8.43</v>
+        <v>6.93</v>
       </c>
       <c r="F26">
         <v>500</v>
@@ -3462,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y26" t="b">
         <v>1</v>
@@ -3489,7 +3420,7 @@
         <v>0.99</v>
       </c>
       <c r="AG26">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH26" t="b">
         <v>1</v>
@@ -3498,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL26">
         <v>8</v>
@@ -3513,21 +3444,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
+    <row r="27" spans="2:40">
       <c r="B27">
-        <v>8.157593174775441</v>
+        <v>8.608067127068837</v>
       </c>
       <c r="C27">
-        <v>0.5656565656565656</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D27">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="E27">
-        <v>7.73</v>
+        <v>5.02</v>
       </c>
       <c r="F27">
         <v>500</v>
@@ -3578,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="b">
         <v>1</v>
@@ -3605,7 +3533,7 @@
         <v>0.99</v>
       </c>
       <c r="AG27">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH27" t="b">
         <v>1</v>
@@ -3614,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="AJ27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK27">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL27">
         <v>8</v>
@@ -3629,21 +3557,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
+    <row r="28" spans="2:40">
       <c r="B28">
-        <v>8.229284326235453</v>
+        <v>8.616295115152996</v>
       </c>
       <c r="C28">
-        <v>0.6868686868686869</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="D28">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="E28">
-        <v>7.56</v>
+        <v>6.1</v>
       </c>
       <c r="F28">
         <v>500</v>
@@ -3694,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="b">
         <v>1</v>
@@ -3721,7 +3646,7 @@
         <v>0.99</v>
       </c>
       <c r="AG28">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH28" t="b">
         <v>1</v>
@@ -3730,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="AJ28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL28">
         <v>8</v>
@@ -3745,21 +3670,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
+    <row r="29" spans="2:40">
       <c r="B29">
-        <v>8.110519023736318</v>
+        <v>15.97789500554403</v>
       </c>
       <c r="C29">
-        <v>0.5555555555555556</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="D29">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="E29">
-        <v>7.61</v>
+        <v>4.95</v>
       </c>
       <c r="F29">
         <v>500</v>
@@ -3810,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="b">
         <v>1</v>
@@ -3828,7 +3750,7 @@
         <v>32</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE29">
         <v>0.2</v>
@@ -3837,7 +3759,7 @@
         <v>0.99</v>
       </c>
       <c r="AG29">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH29" t="b">
         <v>1</v>
@@ -3846,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="AJ29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK29">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL29">
         <v>8</v>
@@ -3861,21 +3783,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
+    <row r="30" spans="2:40">
       <c r="B30">
-        <v>8.013145971298218</v>
+        <v>16.39762274424235</v>
       </c>
       <c r="C30">
-        <v>0.5858585858585859</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="D30">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="E30">
-        <v>7.5</v>
+        <v>5.38</v>
       </c>
       <c r="F30">
         <v>500</v>
@@ -3926,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="b">
         <v>1</v>
@@ -3944,7 +3863,7 @@
         <v>32</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE30">
         <v>0.2</v>
@@ -3953,7 +3872,7 @@
         <v>0.99</v>
       </c>
       <c r="AG30">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH30" t="b">
         <v>1</v>
@@ -3962,10 +3881,10 @@
         <v>1</v>
       </c>
       <c r="AJ30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK30">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL30">
         <v>8</v>
@@ -3977,21 +3896,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
+    <row r="31" spans="2:40">
       <c r="B31">
-        <v>7.940174345175425</v>
+        <v>16.07305725018183</v>
       </c>
       <c r="C31">
-        <v>0.5252525252525253</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="D31">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="E31">
-        <v>7.77</v>
+        <v>5.34</v>
       </c>
       <c r="F31">
         <v>500</v>
@@ -4042,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="b">
         <v>1</v>
@@ -4060,7 +3976,7 @@
         <v>32</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE31">
         <v>0.2</v>
@@ -4069,7 +3985,7 @@
         <v>0.99</v>
       </c>
       <c r="AG31">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH31" t="b">
         <v>1</v>
@@ -4078,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK31">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL31">
         <v>8</v>
@@ -4093,27 +4009,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
+    <row r="32" spans="2:40">
       <c r="B32">
-        <v>7.977208705743154</v>
+        <v>7.818611526489258</v>
       </c>
       <c r="C32">
-        <v>0.5454545454545454</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="D32">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="E32">
-        <v>7.98</v>
+        <v>7.09</v>
       </c>
       <c r="F32">
         <v>500</v>
       </c>
       <c r="G32">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H32">
         <v>50</v>
@@ -4158,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y32" t="b">
         <v>1</v>
@@ -4176,7 +4089,7 @@
         <v>32</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE32">
         <v>0.2</v>
@@ -4185,7 +4098,7 @@
         <v>0.99</v>
       </c>
       <c r="AG32">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH32" t="b">
         <v>1</v>
@@ -4197,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="AK32">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL32">
         <v>8</v>
@@ -4209,27 +4122,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
+    <row r="33" spans="2:40">
       <c r="B33">
-        <v>7.920826101303101</v>
+        <v>7.889920620123545</v>
       </c>
       <c r="C33">
-        <v>0.4646464646464646</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="D33">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="E33">
-        <v>8.4</v>
+        <v>5.44</v>
       </c>
       <c r="F33">
         <v>500</v>
       </c>
       <c r="G33">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H33">
         <v>50</v>
@@ -4274,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="b">
         <v>1</v>
@@ -4292,7 +4202,7 @@
         <v>32</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE33">
         <v>0.2</v>
@@ -4301,7 +4211,7 @@
         <v>0.99</v>
       </c>
       <c r="AG33">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH33" t="b">
         <v>1</v>
@@ -4313,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="AK33">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL33">
         <v>8</v>
@@ -4325,27 +4235,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
+    <row r="34" spans="2:40">
       <c r="B34">
-        <v>7.992501171429952</v>
+        <v>7.784868081410726</v>
       </c>
       <c r="C34">
-        <v>0.3636363636363636</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="D34">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="E34">
-        <v>8.550000000000001</v>
+        <v>4.64</v>
       </c>
       <c r="F34">
         <v>500</v>
       </c>
       <c r="G34">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H34">
         <v>50</v>
@@ -4390,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34" t="b">
         <v>1</v>
@@ -4408,7 +4315,7 @@
         <v>32</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE34">
         <v>0.2</v>
@@ -4417,7 +4324,7 @@
         <v>0.99</v>
       </c>
       <c r="AG34">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH34" t="b">
         <v>1</v>
@@ -4429,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="AK34">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL34">
         <v>8</v>
@@ -4441,27 +4348,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
+    <row r="35" spans="2:40">
       <c r="B35">
-        <v>8.370490709940592</v>
+        <v>7.834668358167012</v>
       </c>
       <c r="C35">
-        <v>0.8787878787878788</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="D35">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="E35">
-        <v>5.24</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>500</v>
       </c>
       <c r="G35">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H35">
         <v>50</v>
@@ -4506,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="b">
         <v>1</v>
@@ -4524,7 +4428,7 @@
         <v>32</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE35">
         <v>0.2</v>
@@ -4545,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL35">
         <v>8</v>
@@ -4557,27 +4461,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
+    <row r="36" spans="2:40">
       <c r="B36">
-        <v>8.034704554080964</v>
+        <v>7.777836501598358</v>
       </c>
       <c r="C36">
-        <v>0.9898989898989899</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="D36">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="E36">
-        <v>4.59</v>
+        <v>6.15</v>
       </c>
       <c r="F36">
         <v>500</v>
       </c>
       <c r="G36">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H36">
         <v>50</v>
@@ -4622,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y36" t="b">
         <v>1</v>
@@ -4640,7 +4541,7 @@
         <v>32</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE36">
         <v>0.2</v>
@@ -4661,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL36">
         <v>8</v>
@@ -4673,27 +4574,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
+    <row r="37" spans="2:40">
       <c r="B37">
-        <v>8.033558066685995</v>
+        <v>7.794608306884766</v>
       </c>
       <c r="C37">
-        <v>0.9090909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D37">
-        <v>3.36</v>
+        <v>3.48</v>
       </c>
       <c r="E37">
-        <v>4.55</v>
+        <v>7.07</v>
       </c>
       <c r="F37">
         <v>500</v>
       </c>
       <c r="G37">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H37">
         <v>50</v>
@@ -4738,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="b">
         <v>1</v>
@@ -4756,7 +4654,7 @@
         <v>32</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE37">
         <v>0.2</v>
@@ -4777,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL37">
         <v>8</v>
@@ -4789,27 +4687,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
+    <row r="38" spans="2:40">
       <c r="B38">
-        <v>8.518578171730042</v>
+        <v>17.47190077702204</v>
       </c>
       <c r="C38">
-        <v>0.8181818181818182</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="D38">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="E38">
-        <v>5.71</v>
+        <v>5.28</v>
       </c>
       <c r="F38">
         <v>500</v>
       </c>
       <c r="G38">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H38">
         <v>50</v>
@@ -4890,10 +4785,10 @@
         <v>1</v>
       </c>
       <c r="AJ38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL38">
         <v>8</v>
@@ -4905,27 +4800,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
+    <row r="39" spans="2:40">
       <c r="B39">
-        <v>8.820287835597991</v>
+        <v>16.79220113356908</v>
       </c>
       <c r="C39">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D39">
-        <v>3.39</v>
+        <v>3.54</v>
       </c>
       <c r="E39">
-        <v>6.37</v>
+        <v>5.22</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H39">
         <v>50</v>
@@ -5006,10 +4898,10 @@
         <v>1</v>
       </c>
       <c r="AJ39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL39">
         <v>8</v>
@@ -5021,27 +4913,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="40" spans="1:40">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
+    <row r="40" spans="2:40">
       <c r="B40">
-        <v>8.627370186646779</v>
+        <v>17.34447542031606</v>
       </c>
       <c r="C40">
         <v>0.9393939393939394</v>
       </c>
       <c r="D40">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="E40">
-        <v>5.03</v>
+        <v>4.94</v>
       </c>
       <c r="F40">
         <v>500</v>
       </c>
       <c r="G40">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H40">
         <v>50</v>
@@ -5122,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="AJ40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL40">
         <v>8</v>
@@ -5137,21 +5026,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:40">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
+    <row r="41" spans="2:40">
       <c r="B41">
-        <v>7.915971867243448</v>
+        <v>4.871740627288818</v>
       </c>
       <c r="C41">
-        <v>0.404040404040404</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="D41">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="E41">
-        <v>8.32</v>
+        <v>7.07</v>
       </c>
       <c r="F41">
         <v>500</v>
@@ -5202,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y41" t="b">
         <v>1</v>
@@ -5220,7 +5106,7 @@
         <v>32</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE41">
         <v>0.2</v>
@@ -5229,7 +5115,7 @@
         <v>0.99</v>
       </c>
       <c r="AG41">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH41" t="b">
         <v>1</v>
@@ -5238,10 +5124,10 @@
         <v>1</v>
       </c>
       <c r="AJ41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK41">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL41">
         <v>8</v>
@@ -5253,21 +5139,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="42" spans="1:40">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
+    <row r="42" spans="2:40">
       <c r="B42">
-        <v>7.87902117172877</v>
+        <v>4.954037229220073</v>
       </c>
       <c r="C42">
-        <v>0.4141414141414141</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="D42">
         <v>3.43</v>
       </c>
       <c r="E42">
-        <v>8.56</v>
+        <v>7.24</v>
       </c>
       <c r="F42">
         <v>500</v>
@@ -5318,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y42" t="b">
         <v>1</v>
@@ -5336,7 +5219,7 @@
         <v>32</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE42">
         <v>0.2</v>
@@ -5345,7 +5228,7 @@
         <v>0.99</v>
       </c>
       <c r="AG42">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH42" t="b">
         <v>1</v>
@@ -5354,10 +5237,10 @@
         <v>1</v>
       </c>
       <c r="AJ42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL42">
         <v>8</v>
@@ -5369,21 +5252,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="43" spans="1:40">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
+    <row r="43" spans="2:40">
       <c r="B43">
-        <v>7.404805521170299</v>
+        <v>5.256544530391693</v>
       </c>
       <c r="C43">
-        <v>0.3434343434343434</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="D43">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="E43">
-        <v>9.01</v>
+        <v>7.16</v>
       </c>
       <c r="F43">
         <v>500</v>
@@ -5434,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y43" t="b">
         <v>1</v>
@@ -5452,7 +5332,7 @@
         <v>32</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE43">
         <v>0.2</v>
@@ -5461,7 +5341,7 @@
         <v>0.99</v>
       </c>
       <c r="AG43">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH43" t="b">
         <v>1</v>
@@ -5470,10 +5350,10 @@
         <v>1</v>
       </c>
       <c r="AJ43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL43">
         <v>8</v>
@@ -5485,21 +5365,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="44" spans="1:40">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
+    <row r="44" spans="2:40">
       <c r="B44">
-        <v>8.112297101815541</v>
+        <v>5.13091432650884</v>
       </c>
       <c r="C44">
-        <v>0.4444444444444444</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="D44">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="E44">
-        <v>8.42</v>
+        <v>7.35</v>
       </c>
       <c r="F44">
         <v>500</v>
@@ -5550,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y44" t="b">
         <v>1</v>
@@ -5568,7 +5445,7 @@
         <v>32</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE44">
         <v>0.2</v>
@@ -5577,7 +5454,7 @@
         <v>0.99</v>
       </c>
       <c r="AG44">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH44" t="b">
         <v>1</v>
@@ -5586,10 +5463,10 @@
         <v>1</v>
       </c>
       <c r="AJ44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL44">
         <v>8</v>
@@ -5601,21 +5478,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="45" spans="1:40">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
+    <row r="45" spans="2:40">
       <c r="B45">
-        <v>7.720278890927633</v>
+        <v>5.205564264456431</v>
       </c>
       <c r="C45">
-        <v>0.4444444444444444</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="D45">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="E45">
-        <v>8.619999999999999</v>
+        <v>7.24</v>
       </c>
       <c r="F45">
         <v>500</v>
@@ -5666,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="b">
         <v>1</v>
@@ -5684,7 +5558,7 @@
         <v>32</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE45">
         <v>0.2</v>
@@ -5693,7 +5567,7 @@
         <v>0.99</v>
       </c>
       <c r="AG45">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH45" t="b">
         <v>1</v>
@@ -5702,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL45">
         <v>8</v>
@@ -5717,21 +5591,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="46" spans="1:40">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
+    <row r="46" spans="2:40">
       <c r="B46">
-        <v>8.036200360457103</v>
+        <v>5.142549423376719</v>
       </c>
       <c r="C46">
-        <v>0.404040404040404</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="D46">
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
       <c r="E46">
-        <v>8.92</v>
+        <v>7.36</v>
       </c>
       <c r="F46">
         <v>500</v>
@@ -5782,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
@@ -5800,7 +5671,7 @@
         <v>32</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE46">
         <v>0.2</v>
@@ -5809,7 +5680,7 @@
         <v>0.99</v>
       </c>
       <c r="AG46">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH46" t="b">
         <v>1</v>
@@ -5818,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="AJ46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL46">
         <v>8</v>
@@ -5833,27 +5704,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="47" spans="1:40">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
+    <row r="47" spans="2:40">
       <c r="B47">
-        <v>7.828505341211955</v>
+        <v>9.915138391653697</v>
       </c>
       <c r="C47">
-        <v>0.4747474747474748</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D47">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="E47">
-        <v>8.32</v>
+        <v>5.47</v>
       </c>
       <c r="F47">
         <v>500</v>
       </c>
       <c r="G47">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H47">
         <v>50</v>
@@ -5916,7 +5784,7 @@
         <v>32</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE47">
         <v>0.2</v>
@@ -5925,7 +5793,7 @@
         <v>0.99</v>
       </c>
       <c r="AG47">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH47" t="b">
         <v>1</v>
@@ -5937,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL47">
         <v>8</v>
@@ -5949,27 +5817,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="48" spans="1:40">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
+    <row r="48" spans="2:40">
       <c r="B48">
-        <v>7.736800785859426</v>
+        <v>10.24409219026566</v>
       </c>
       <c r="C48">
-        <v>0.5555555555555556</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="D48">
-        <v>3.52</v>
+        <v>3.41</v>
       </c>
       <c r="E48">
-        <v>8.300000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="F48">
         <v>500</v>
       </c>
       <c r="G48">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H48">
         <v>50</v>
@@ -6032,7 +5897,7 @@
         <v>32</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE48">
         <v>0.2</v>
@@ -6041,7 +5906,7 @@
         <v>0.99</v>
       </c>
       <c r="AG48">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH48" t="b">
         <v>1</v>
@@ -6053,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL48">
         <v>8</v>
@@ -6065,27 +5930,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="49" spans="1:40">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
+    <row r="49" spans="2:40">
       <c r="B49">
-        <v>7.876061888535817</v>
+        <v>9.587630788485209</v>
       </c>
       <c r="C49">
-        <v>0.5959595959595959</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="D49">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
       <c r="E49">
-        <v>7.73</v>
+        <v>5.2</v>
       </c>
       <c r="F49">
         <v>500</v>
       </c>
       <c r="G49">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H49">
         <v>50</v>
@@ -6148,7 +6010,7 @@
         <v>32</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE49">
         <v>0.2</v>
@@ -6157,7 +6019,7 @@
         <v>0.99</v>
       </c>
       <c r="AG49">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH49" t="b">
         <v>1</v>
@@ -6169,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL49">
         <v>8</v>
@@ -6181,21 +6043,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="50" spans="1:40">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
+    <row r="50" spans="2:40">
       <c r="B50">
-        <v>7.721591532230377</v>
+        <v>15.63886840343475</v>
       </c>
       <c r="C50">
-        <v>0.3636363636363636</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="D50">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="E50">
-        <v>8.890000000000001</v>
+        <v>5.49</v>
       </c>
       <c r="F50">
         <v>500</v>
@@ -6264,7 +6123,7 @@
         <v>32</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE50">
         <v>0.2</v>
@@ -6273,7 +6132,7 @@
         <v>0.99</v>
       </c>
       <c r="AG50">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH50" t="b">
         <v>1</v>
@@ -6285,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL50">
         <v>8</v>
@@ -6297,21 +6156,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="51" spans="1:40">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
+    <row r="51" spans="2:40">
       <c r="B51">
-        <v>7.835769665241242</v>
+        <v>15.52510568698247</v>
       </c>
       <c r="C51">
-        <v>0.5252525252525253</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="D51">
-        <v>3.47</v>
+        <v>3.32</v>
       </c>
       <c r="E51">
-        <v>8.25</v>
+        <v>5.32</v>
       </c>
       <c r="F51">
         <v>500</v>
@@ -6380,7 +6236,7 @@
         <v>32</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE51">
         <v>0.2</v>
@@ -6389,7 +6245,7 @@
         <v>0.99</v>
       </c>
       <c r="AG51">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH51" t="b">
         <v>1</v>
@@ -6401,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL51">
         <v>8</v>
@@ -6413,21 +6269,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="52" spans="1:40">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
+    <row r="52" spans="2:40">
       <c r="B52">
-        <v>7.598637386163076</v>
+        <v>15.62419076363246</v>
       </c>
       <c r="C52">
-        <v>0.5050505050505051</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D52">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="E52">
-        <v>8.57</v>
+        <v>5.25</v>
       </c>
       <c r="F52">
         <v>500</v>
@@ -6496,7 +6349,7 @@
         <v>32</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE52">
         <v>0.2</v>
@@ -6505,7 +6358,7 @@
         <v>0.99</v>
       </c>
       <c r="AG52">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="AH52" t="b">
         <v>1</v>
@@ -6517,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL52">
         <v>8</v>
@@ -6529,27 +6382,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="53" spans="1:40">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
+    <row r="53" spans="2:40">
       <c r="B53">
-        <v>7.524102747440338</v>
+        <v>4.280703922112783</v>
       </c>
       <c r="C53">
-        <v>0.4747474747474748</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="D53">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="E53">
-        <v>8.24</v>
+        <v>8.02</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H53">
         <v>50</v>
@@ -6594,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y53" t="b">
         <v>1</v>
@@ -6621,7 +6471,7 @@
         <v>0.99</v>
       </c>
       <c r="AG53">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH53" t="b">
         <v>1</v>
@@ -6630,10 +6480,10 @@
         <v>1</v>
       </c>
       <c r="AJ53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK53">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL53">
         <v>8</v>
@@ -6645,27 +6495,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="54" spans="1:40">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
+    <row r="54" spans="2:40">
       <c r="B54">
-        <v>7.43171691497167</v>
+        <v>4.2608407497406</v>
       </c>
       <c r="C54">
-        <v>0.3939393939393939</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="D54">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="E54">
-        <v>8.83</v>
+        <v>7.72</v>
       </c>
       <c r="F54">
         <v>500</v>
       </c>
       <c r="G54">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H54">
         <v>50</v>
@@ -6710,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y54" t="b">
         <v>1</v>
@@ -6737,7 +6584,7 @@
         <v>0.99</v>
       </c>
       <c r="AG54">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH54" t="b">
         <v>1</v>
@@ -6746,10 +6593,10 @@
         <v>1</v>
       </c>
       <c r="AJ54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK54">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL54">
         <v>8</v>
@@ -6761,27 +6608,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="55" spans="1:40">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
+    <row r="55" spans="2:40">
       <c r="B55">
-        <v>7.356833740075429</v>
+        <v>4.259145796298981</v>
       </c>
       <c r="C55">
-        <v>0.3434343434343434</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D55">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="E55">
-        <v>8.779999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="F55">
         <v>500</v>
       </c>
       <c r="G55">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H55">
         <v>50</v>
@@ -6826,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y55" t="b">
         <v>1</v>
@@ -6853,7 +6697,7 @@
         <v>0.99</v>
       </c>
       <c r="AG55">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AH55" t="b">
         <v>1</v>
@@ -6862,10 +6706,10 @@
         <v>1</v>
       </c>
       <c r="AJ55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK55">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL55">
         <v>8</v>
@@ -6877,27 +6721,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="56" spans="1:40">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
+    <row r="56" spans="2:40">
       <c r="B56">
-        <v>8.466915758450826</v>
+        <v>7.762394948800405</v>
       </c>
       <c r="C56">
-        <v>0.8787878787878788</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="D56">
-        <v>3.48</v>
+        <v>3.36</v>
       </c>
       <c r="E56">
-        <v>5.34</v>
+        <v>6.71</v>
       </c>
       <c r="F56">
         <v>500</v>
       </c>
       <c r="G56">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H56">
         <v>50</v>
@@ -6960,7 +6801,7 @@
         <v>32</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE56">
         <v>0.2</v>
@@ -6981,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="AK56">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL56">
         <v>8</v>
@@ -6993,27 +6834,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="57" spans="1:40">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
+    <row r="57" spans="2:40">
       <c r="B57">
-        <v>8.266186213493347</v>
+        <v>8.017213129997254</v>
       </c>
       <c r="C57">
-        <v>0.797979797979798</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D57">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="E57">
-        <v>5.74</v>
+        <v>6.35</v>
       </c>
       <c r="F57">
         <v>500</v>
       </c>
       <c r="G57">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H57">
         <v>50</v>
@@ -7076,7 +6914,7 @@
         <v>32</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE57">
         <v>0.2</v>
@@ -7097,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="AK57">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL57">
         <v>8</v>
@@ -7109,27 +6947,24 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="58" spans="1:40">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
+    <row r="58" spans="2:40">
       <c r="B58">
-        <v>8.718509888648986</v>
+        <v>7.801731053988139</v>
       </c>
       <c r="C58">
-        <v>0.8787878787878788</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="D58">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="E58">
-        <v>5.66</v>
+        <v>7.38</v>
       </c>
       <c r="F58">
         <v>500</v>
       </c>
       <c r="G58">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -7192,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE58">
         <v>0.2</v>
@@ -7213,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="AK58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL58">
         <v>8</v>
@@ -7222,1398 +7057,6 @@
         <v>10</v>
       </c>
       <c r="AN58">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>7.958907643953959</v>
-      </c>
-      <c r="C59">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="D59">
-        <v>3.4</v>
-      </c>
-      <c r="E59">
-        <v>8.17</v>
-      </c>
-      <c r="F59">
-        <v>500</v>
-      </c>
-      <c r="G59">
-        <v>128</v>
-      </c>
-      <c r="H59">
-        <v>50</v>
-      </c>
-      <c r="I59">
-        <v>100</v>
-      </c>
-      <c r="J59">
-        <v>10</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>6</v>
-      </c>
-      <c r="O59" t="b">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>40</v>
-      </c>
-      <c r="Q59">
-        <v>202</v>
-      </c>
-      <c r="R59">
-        <v>42</v>
-      </c>
-      <c r="T59">
-        <v>32</v>
-      </c>
-      <c r="V59">
-        <v>32</v>
-      </c>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59">
-        <v>1</v>
-      </c>
-      <c r="Y59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z59">
-        <v>32</v>
-      </c>
-      <c r="AA59">
-        <v>0.95</v>
-      </c>
-      <c r="AB59">
-        <v>0.01</v>
-      </c>
-      <c r="AC59">
-        <v>32</v>
-      </c>
-      <c r="AD59">
-        <v>10</v>
-      </c>
-      <c r="AE59">
-        <v>0.2</v>
-      </c>
-      <c r="AF59">
-        <v>0.99</v>
-      </c>
-      <c r="AG59">
-        <v>0.01</v>
-      </c>
-      <c r="AH59" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI59">
-        <v>1</v>
-      </c>
-      <c r="AJ59">
-        <v>1</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>8</v>
-      </c>
-      <c r="AM59">
-        <v>10</v>
-      </c>
-      <c r="AN59">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>7.044219438234965</v>
-      </c>
-      <c r="C60">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D60">
-        <v>3.5</v>
-      </c>
-      <c r="E60">
-        <v>9.01</v>
-      </c>
-      <c r="F60">
-        <v>500</v>
-      </c>
-      <c r="G60">
-        <v>128</v>
-      </c>
-      <c r="H60">
-        <v>50</v>
-      </c>
-      <c r="I60">
-        <v>100</v>
-      </c>
-      <c r="J60">
-        <v>10</v>
-      </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>6</v>
-      </c>
-      <c r="O60" t="b">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>40</v>
-      </c>
-      <c r="Q60">
-        <v>202</v>
-      </c>
-      <c r="R60">
-        <v>42</v>
-      </c>
-      <c r="T60">
-        <v>32</v>
-      </c>
-      <c r="V60">
-        <v>32</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60">
-        <v>1</v>
-      </c>
-      <c r="Y60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z60">
-        <v>32</v>
-      </c>
-      <c r="AA60">
-        <v>0.95</v>
-      </c>
-      <c r="AB60">
-        <v>0.01</v>
-      </c>
-      <c r="AC60">
-        <v>32</v>
-      </c>
-      <c r="AD60">
-        <v>10</v>
-      </c>
-      <c r="AE60">
-        <v>0.2</v>
-      </c>
-      <c r="AF60">
-        <v>0.99</v>
-      </c>
-      <c r="AG60">
-        <v>0.01</v>
-      </c>
-      <c r="AH60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI60">
-        <v>1</v>
-      </c>
-      <c r="AJ60">
-        <v>1</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>8</v>
-      </c>
-      <c r="AM60">
-        <v>10</v>
-      </c>
-      <c r="AN60">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>7.789759329954783</v>
-      </c>
-      <c r="C61">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D61">
-        <v>3.4</v>
-      </c>
-      <c r="E61">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="F61">
-        <v>500</v>
-      </c>
-      <c r="G61">
-        <v>128</v>
-      </c>
-      <c r="H61">
-        <v>50</v>
-      </c>
-      <c r="I61">
-        <v>100</v>
-      </c>
-      <c r="J61">
-        <v>10</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>6</v>
-      </c>
-      <c r="O61" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>40</v>
-      </c>
-      <c r="Q61">
-        <v>202</v>
-      </c>
-      <c r="R61">
-        <v>42</v>
-      </c>
-      <c r="T61">
-        <v>32</v>
-      </c>
-      <c r="V61">
-        <v>32</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61">
-        <v>1</v>
-      </c>
-      <c r="Y61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <v>32</v>
-      </c>
-      <c r="AA61">
-        <v>0.95</v>
-      </c>
-      <c r="AB61">
-        <v>0.01</v>
-      </c>
-      <c r="AC61">
-        <v>32</v>
-      </c>
-      <c r="AD61">
-        <v>10</v>
-      </c>
-      <c r="AE61">
-        <v>0.2</v>
-      </c>
-      <c r="AF61">
-        <v>0.99</v>
-      </c>
-      <c r="AG61">
-        <v>0.01</v>
-      </c>
-      <c r="AH61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI61">
-        <v>1</v>
-      </c>
-      <c r="AJ61">
-        <v>1</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>8</v>
-      </c>
-      <c r="AM61">
-        <v>10</v>
-      </c>
-      <c r="AN61">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>8.425510283311208</v>
-      </c>
-      <c r="C62">
-        <v>0.9191919191919192</v>
-      </c>
-      <c r="D62">
-        <v>3.42</v>
-      </c>
-      <c r="E62">
-        <v>4.95</v>
-      </c>
-      <c r="F62">
-        <v>500</v>
-      </c>
-      <c r="G62">
-        <v>128</v>
-      </c>
-      <c r="H62">
-        <v>50</v>
-      </c>
-      <c r="I62">
-        <v>100</v>
-      </c>
-      <c r="J62">
-        <v>10</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>6</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>40</v>
-      </c>
-      <c r="Q62">
-        <v>202</v>
-      </c>
-      <c r="R62">
-        <v>42</v>
-      </c>
-      <c r="T62">
-        <v>32</v>
-      </c>
-      <c r="V62">
-        <v>32</v>
-      </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62">
-        <v>2</v>
-      </c>
-      <c r="Y62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z62">
-        <v>32</v>
-      </c>
-      <c r="AA62">
-        <v>0.95</v>
-      </c>
-      <c r="AB62">
-        <v>0.01</v>
-      </c>
-      <c r="AC62">
-        <v>32</v>
-      </c>
-      <c r="AD62">
-        <v>10</v>
-      </c>
-      <c r="AE62">
-        <v>0.2</v>
-      </c>
-      <c r="AF62">
-        <v>0.99</v>
-      </c>
-      <c r="AG62">
-        <v>0.001</v>
-      </c>
-      <c r="AH62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI62">
-        <v>1</v>
-      </c>
-      <c r="AJ62">
-        <v>0.5</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>8</v>
-      </c>
-      <c r="AM62">
-        <v>10</v>
-      </c>
-      <c r="AN62">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>8.673198175430297</v>
-      </c>
-      <c r="C63">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="D63">
-        <v>3.39</v>
-      </c>
-      <c r="E63">
-        <v>5.15</v>
-      </c>
-      <c r="F63">
-        <v>500</v>
-      </c>
-      <c r="G63">
-        <v>128</v>
-      </c>
-      <c r="H63">
-        <v>50</v>
-      </c>
-      <c r="I63">
-        <v>100</v>
-      </c>
-      <c r="J63">
-        <v>10</v>
-      </c>
-      <c r="K63" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>4</v>
-      </c>
-      <c r="N63">
-        <v>6</v>
-      </c>
-      <c r="O63" t="b">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>40</v>
-      </c>
-      <c r="Q63">
-        <v>202</v>
-      </c>
-      <c r="R63">
-        <v>42</v>
-      </c>
-      <c r="T63">
-        <v>32</v>
-      </c>
-      <c r="V63">
-        <v>32</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63">
-        <v>2</v>
-      </c>
-      <c r="Y63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z63">
-        <v>32</v>
-      </c>
-      <c r="AA63">
-        <v>0.95</v>
-      </c>
-      <c r="AB63">
-        <v>0.01</v>
-      </c>
-      <c r="AC63">
-        <v>32</v>
-      </c>
-      <c r="AD63">
-        <v>10</v>
-      </c>
-      <c r="AE63">
-        <v>0.2</v>
-      </c>
-      <c r="AF63">
-        <v>0.99</v>
-      </c>
-      <c r="AG63">
-        <v>0.001</v>
-      </c>
-      <c r="AH63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI63">
-        <v>1</v>
-      </c>
-      <c r="AJ63">
-        <v>0.5</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>8</v>
-      </c>
-      <c r="AM63">
-        <v>10</v>
-      </c>
-      <c r="AN63">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>8.358372918764751</v>
-      </c>
-      <c r="C64">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="D64">
-        <v>3.4</v>
-      </c>
-      <c r="E64">
-        <v>4.99</v>
-      </c>
-      <c r="F64">
-        <v>500</v>
-      </c>
-      <c r="G64">
-        <v>128</v>
-      </c>
-      <c r="H64">
-        <v>50</v>
-      </c>
-      <c r="I64">
-        <v>100</v>
-      </c>
-      <c r="J64">
-        <v>10</v>
-      </c>
-      <c r="K64" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>4</v>
-      </c>
-      <c r="N64">
-        <v>6</v>
-      </c>
-      <c r="O64" t="b">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>40</v>
-      </c>
-      <c r="Q64">
-        <v>202</v>
-      </c>
-      <c r="R64">
-        <v>42</v>
-      </c>
-      <c r="T64">
-        <v>32</v>
-      </c>
-      <c r="V64">
-        <v>32</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
-        <v>2</v>
-      </c>
-      <c r="Y64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z64">
-        <v>32</v>
-      </c>
-      <c r="AA64">
-        <v>0.95</v>
-      </c>
-      <c r="AB64">
-        <v>0.01</v>
-      </c>
-      <c r="AC64">
-        <v>32</v>
-      </c>
-      <c r="AD64">
-        <v>10</v>
-      </c>
-      <c r="AE64">
-        <v>0.2</v>
-      </c>
-      <c r="AF64">
-        <v>0.99</v>
-      </c>
-      <c r="AG64">
-        <v>0.001</v>
-      </c>
-      <c r="AH64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI64">
-        <v>1</v>
-      </c>
-      <c r="AJ64">
-        <v>0.5</v>
-      </c>
-      <c r="AK64">
-        <v>0</v>
-      </c>
-      <c r="AL64">
-        <v>8</v>
-      </c>
-      <c r="AM64">
-        <v>10</v>
-      </c>
-      <c r="AN64">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>7.796458109219869</v>
-      </c>
-      <c r="C65">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D65">
-        <v>3.48</v>
-      </c>
-      <c r="E65">
-        <v>7.76</v>
-      </c>
-      <c r="F65">
-        <v>500</v>
-      </c>
-      <c r="G65">
-        <v>128</v>
-      </c>
-      <c r="H65">
-        <v>50</v>
-      </c>
-      <c r="I65">
-        <v>100</v>
-      </c>
-      <c r="J65">
-        <v>10</v>
-      </c>
-      <c r="K65" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>4</v>
-      </c>
-      <c r="N65">
-        <v>6</v>
-      </c>
-      <c r="O65" t="b">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>40</v>
-      </c>
-      <c r="Q65">
-        <v>202</v>
-      </c>
-      <c r="R65">
-        <v>42</v>
-      </c>
-      <c r="T65">
-        <v>32</v>
-      </c>
-      <c r="V65">
-        <v>32</v>
-      </c>
-      <c r="W65">
-        <v>1</v>
-      </c>
-      <c r="X65">
-        <v>1</v>
-      </c>
-      <c r="Y65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z65">
-        <v>32</v>
-      </c>
-      <c r="AA65">
-        <v>0.95</v>
-      </c>
-      <c r="AB65">
-        <v>0.01</v>
-      </c>
-      <c r="AC65">
-        <v>32</v>
-      </c>
-      <c r="AD65">
-        <v>10</v>
-      </c>
-      <c r="AE65">
-        <v>0.2</v>
-      </c>
-      <c r="AF65">
-        <v>0.99</v>
-      </c>
-      <c r="AG65">
-        <v>0.01</v>
-      </c>
-      <c r="AH65" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI65">
-        <v>1</v>
-      </c>
-      <c r="AJ65">
-        <v>1</v>
-      </c>
-      <c r="AK65">
-        <v>0.5</v>
-      </c>
-      <c r="AL65">
-        <v>8</v>
-      </c>
-      <c r="AM65">
-        <v>10</v>
-      </c>
-      <c r="AN65">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>7.587916012605032</v>
-      </c>
-      <c r="C66">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="D66">
-        <v>3.5</v>
-      </c>
-      <c r="E66">
-        <v>8.6</v>
-      </c>
-      <c r="F66">
-        <v>500</v>
-      </c>
-      <c r="G66">
-        <v>128</v>
-      </c>
-      <c r="H66">
-        <v>50</v>
-      </c>
-      <c r="I66">
-        <v>100</v>
-      </c>
-      <c r="J66">
-        <v>10</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>6</v>
-      </c>
-      <c r="O66" t="b">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>40</v>
-      </c>
-      <c r="Q66">
-        <v>202</v>
-      </c>
-      <c r="R66">
-        <v>42</v>
-      </c>
-      <c r="T66">
-        <v>32</v>
-      </c>
-      <c r="V66">
-        <v>32</v>
-      </c>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="X66">
-        <v>1</v>
-      </c>
-      <c r="Y66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <v>32</v>
-      </c>
-      <c r="AA66">
-        <v>0.95</v>
-      </c>
-      <c r="AB66">
-        <v>0.01</v>
-      </c>
-      <c r="AC66">
-        <v>32</v>
-      </c>
-      <c r="AD66">
-        <v>10</v>
-      </c>
-      <c r="AE66">
-        <v>0.2</v>
-      </c>
-      <c r="AF66">
-        <v>0.99</v>
-      </c>
-      <c r="AG66">
-        <v>0.01</v>
-      </c>
-      <c r="AH66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI66">
-        <v>1</v>
-      </c>
-      <c r="AJ66">
-        <v>1</v>
-      </c>
-      <c r="AK66">
-        <v>0.5</v>
-      </c>
-      <c r="AL66">
-        <v>8</v>
-      </c>
-      <c r="AM66">
-        <v>10</v>
-      </c>
-      <c r="AN66">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>7.519814749558766</v>
-      </c>
-      <c r="C67">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D67">
-        <v>3.4</v>
-      </c>
-      <c r="E67">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="F67">
-        <v>500</v>
-      </c>
-      <c r="G67">
-        <v>128</v>
-      </c>
-      <c r="H67">
-        <v>50</v>
-      </c>
-      <c r="I67">
-        <v>100</v>
-      </c>
-      <c r="J67">
-        <v>10</v>
-      </c>
-      <c r="K67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>4</v>
-      </c>
-      <c r="N67">
-        <v>6</v>
-      </c>
-      <c r="O67" t="b">
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <v>40</v>
-      </c>
-      <c r="Q67">
-        <v>202</v>
-      </c>
-      <c r="R67">
-        <v>42</v>
-      </c>
-      <c r="T67">
-        <v>32</v>
-      </c>
-      <c r="V67">
-        <v>32</v>
-      </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="X67">
-        <v>1</v>
-      </c>
-      <c r="Y67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z67">
-        <v>32</v>
-      </c>
-      <c r="AA67">
-        <v>0.95</v>
-      </c>
-      <c r="AB67">
-        <v>0.01</v>
-      </c>
-      <c r="AC67">
-        <v>32</v>
-      </c>
-      <c r="AD67">
-        <v>10</v>
-      </c>
-      <c r="AE67">
-        <v>0.2</v>
-      </c>
-      <c r="AF67">
-        <v>0.99</v>
-      </c>
-      <c r="AG67">
-        <v>0.01</v>
-      </c>
-      <c r="AH67" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI67">
-        <v>1</v>
-      </c>
-      <c r="AJ67">
-        <v>1</v>
-      </c>
-      <c r="AK67">
-        <v>0.5</v>
-      </c>
-      <c r="AL67">
-        <v>8</v>
-      </c>
-      <c r="AM67">
-        <v>10</v>
-      </c>
-      <c r="AN67">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:40">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>7.401912665367126</v>
-      </c>
-      <c r="C68">
-        <v>0.3535353535353535</v>
-      </c>
-      <c r="D68">
-        <v>3.37</v>
-      </c>
-      <c r="E68">
-        <v>8.93</v>
-      </c>
-      <c r="F68">
-        <v>500</v>
-      </c>
-      <c r="G68">
-        <v>128</v>
-      </c>
-      <c r="H68">
-        <v>50</v>
-      </c>
-      <c r="I68">
-        <v>100</v>
-      </c>
-      <c r="J68">
-        <v>10</v>
-      </c>
-      <c r="K68" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>4</v>
-      </c>
-      <c r="N68">
-        <v>6</v>
-      </c>
-      <c r="O68" t="b">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>40</v>
-      </c>
-      <c r="Q68">
-        <v>202</v>
-      </c>
-      <c r="R68">
-        <v>42</v>
-      </c>
-      <c r="T68">
-        <v>32</v>
-      </c>
-      <c r="V68">
-        <v>32</v>
-      </c>
-      <c r="W68">
-        <v>1</v>
-      </c>
-      <c r="X68">
-        <v>1</v>
-      </c>
-      <c r="Y68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z68">
-        <v>32</v>
-      </c>
-      <c r="AA68">
-        <v>0.95</v>
-      </c>
-      <c r="AB68">
-        <v>0.01</v>
-      </c>
-      <c r="AC68">
-        <v>32</v>
-      </c>
-      <c r="AD68">
-        <v>10</v>
-      </c>
-      <c r="AE68">
-        <v>0.2</v>
-      </c>
-      <c r="AF68">
-        <v>0.99</v>
-      </c>
-      <c r="AG68">
-        <v>0.01</v>
-      </c>
-      <c r="AH68" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI68">
-        <v>1</v>
-      </c>
-      <c r="AJ68">
-        <v>0.5</v>
-      </c>
-      <c r="AK68">
-        <v>0.75</v>
-      </c>
-      <c r="AL68">
-        <v>8</v>
-      </c>
-      <c r="AM68">
-        <v>10</v>
-      </c>
-      <c r="AN68">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>7.974798488616943</v>
-      </c>
-      <c r="C69">
-        <v>0.4646464646464646</v>
-      </c>
-      <c r="D69">
-        <v>3.39</v>
-      </c>
-      <c r="E69">
-        <v>8.32</v>
-      </c>
-      <c r="F69">
-        <v>500</v>
-      </c>
-      <c r="G69">
-        <v>128</v>
-      </c>
-      <c r="H69">
-        <v>50</v>
-      </c>
-      <c r="I69">
-        <v>100</v>
-      </c>
-      <c r="J69">
-        <v>10</v>
-      </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>4</v>
-      </c>
-      <c r="N69">
-        <v>6</v>
-      </c>
-      <c r="O69" t="b">
-        <v>1</v>
-      </c>
-      <c r="P69">
-        <v>40</v>
-      </c>
-      <c r="Q69">
-        <v>202</v>
-      </c>
-      <c r="R69">
-        <v>42</v>
-      </c>
-      <c r="T69">
-        <v>32</v>
-      </c>
-      <c r="V69">
-        <v>32</v>
-      </c>
-      <c r="W69">
-        <v>1</v>
-      </c>
-      <c r="X69">
-        <v>1</v>
-      </c>
-      <c r="Y69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z69">
-        <v>32</v>
-      </c>
-      <c r="AA69">
-        <v>0.95</v>
-      </c>
-      <c r="AB69">
-        <v>0.01</v>
-      </c>
-      <c r="AC69">
-        <v>32</v>
-      </c>
-      <c r="AD69">
-        <v>10</v>
-      </c>
-      <c r="AE69">
-        <v>0.2</v>
-      </c>
-      <c r="AF69">
-        <v>0.99</v>
-      </c>
-      <c r="AG69">
-        <v>0.01</v>
-      </c>
-      <c r="AH69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI69">
-        <v>1</v>
-      </c>
-      <c r="AJ69">
-        <v>0.5</v>
-      </c>
-      <c r="AK69">
-        <v>0.75</v>
-      </c>
-      <c r="AL69">
-        <v>8</v>
-      </c>
-      <c r="AM69">
-        <v>10</v>
-      </c>
-      <c r="AN69">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>7.042357162634532</v>
-      </c>
-      <c r="C70">
-        <v>0.2828282828282828</v>
-      </c>
-      <c r="D70">
-        <v>3.47</v>
-      </c>
-      <c r="E70">
-        <v>8.93</v>
-      </c>
-      <c r="F70">
-        <v>500</v>
-      </c>
-      <c r="G70">
-        <v>128</v>
-      </c>
-      <c r="H70">
-        <v>50</v>
-      </c>
-      <c r="I70">
-        <v>100</v>
-      </c>
-      <c r="J70">
-        <v>10</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>4</v>
-      </c>
-      <c r="N70">
-        <v>6</v>
-      </c>
-      <c r="O70" t="b">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>40</v>
-      </c>
-      <c r="Q70">
-        <v>202</v>
-      </c>
-      <c r="R70">
-        <v>42</v>
-      </c>
-      <c r="T70">
-        <v>32</v>
-      </c>
-      <c r="V70">
-        <v>32</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>1</v>
-      </c>
-      <c r="Y70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z70">
-        <v>32</v>
-      </c>
-      <c r="AA70">
-        <v>0.95</v>
-      </c>
-      <c r="AB70">
-        <v>0.01</v>
-      </c>
-      <c r="AC70">
-        <v>32</v>
-      </c>
-      <c r="AD70">
-        <v>10</v>
-      </c>
-      <c r="AE70">
-        <v>0.2</v>
-      </c>
-      <c r="AF70">
-        <v>0.99</v>
-      </c>
-      <c r="AG70">
-        <v>0.01</v>
-      </c>
-      <c r="AH70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI70">
-        <v>1</v>
-      </c>
-      <c r="AJ70">
-        <v>0.5</v>
-      </c>
-      <c r="AK70">
-        <v>0.75</v>
-      </c>
-      <c r="AL70">
-        <v>8</v>
-      </c>
-      <c r="AM70">
-        <v>10</v>
-      </c>
-      <c r="AN70">
         <v>-5</v>
       </c>
     </row>

--- a/run-data.xlsx
+++ b/run-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>total_time_taken(m)</t>
   </si>
@@ -136,7 +136,22 @@
     <t>O_node_feat_type</t>
   </si>
   <si>
+    <t>O_data</t>
+  </si>
+  <si>
+    <t>deepmind</t>
+  </si>
+  <si>
+    <t>nervenet</t>
+  </si>
+  <si>
     <t>fully_connected</t>
+  </si>
+  <si>
+    <t>no_structure</t>
+  </si>
+  <si>
+    <t>very hard</t>
   </si>
 </sst>
 </file>
@@ -494,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,34 +636,37 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2">
-        <v>5.187463088830312</v>
+        <v>31.52176719506582</v>
       </c>
       <c r="B2">
-        <v>0.797979797979798</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C2">
-        <v>3.51</v>
+        <v>3.69</v>
       </c>
       <c r="D2">
-        <v>5.56</v>
+        <v>13.39</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F2">
         <v>128</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -663,16 +681,19 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P2">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="Q2">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="R2">
+        <v>58</v>
       </c>
       <c r="S2">
         <v>32</v>
@@ -696,7 +717,7 @@
         <v>32</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AA2">
         <v>0.01</v>
@@ -708,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="AD2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE2">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AF2">
         <v>0.001</v>
@@ -732,42 +753,45 @@
         <v>8</v>
       </c>
       <c r="AL2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AM2">
         <v>-5</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3">
-        <v>5.297568706671397</v>
+        <v>28.10683162212372</v>
       </c>
       <c r="B3">
-        <v>0.8181818181818182</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C3">
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>15.8</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F3">
         <v>128</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -782,16 +806,19 @@
         <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P3">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="Q3">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="R3">
+        <v>58</v>
       </c>
       <c r="S3">
         <v>32</v>
@@ -815,7 +842,7 @@
         <v>32</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AA3">
         <v>0.01</v>
@@ -827,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="AD3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE3">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AF3">
         <v>0.001</v>
@@ -851,13 +878,1266 @@
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AM3">
         <v>-5</v>
       </c>
       <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4">
+        <v>29.55733622312546</v>
+      </c>
+      <c r="B4">
+        <v>0.4343434343434344</v>
+      </c>
+      <c r="C4">
+        <v>3.82</v>
+      </c>
+      <c r="D4">
+        <v>13.32</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>128</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>54</v>
+      </c>
+      <c r="P4">
+        <v>168</v>
+      </c>
+      <c r="Q4">
+        <v>58</v>
+      </c>
+      <c r="R4">
+        <v>58</v>
+      </c>
+      <c r="S4">
+        <v>32</v>
+      </c>
+      <c r="T4">
+        <v>32</v>
+      </c>
+      <c r="U4">
+        <v>32</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>32</v>
+      </c>
+      <c r="Z4">
+        <v>0.9</v>
+      </c>
+      <c r="AA4">
+        <v>0.01</v>
+      </c>
+      <c r="AB4">
+        <v>32</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>0.3</v>
+      </c>
+      <c r="AE4">
+        <v>0.95</v>
+      </c>
+      <c r="AF4">
+        <v>0.001</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0.75</v>
+      </c>
+      <c r="AK4">
+        <v>8</v>
+      </c>
+      <c r="AL4">
+        <v>5</v>
+      </c>
+      <c r="AM4">
+        <v>-5</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5">
+        <v>20.5165269056956</v>
+      </c>
+      <c r="B5">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="C5">
+        <v>3.89</v>
+      </c>
+      <c r="D5">
+        <v>12.85</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>54</v>
+      </c>
+      <c r="P5">
+        <v>168</v>
+      </c>
+      <c r="Q5">
+        <v>58</v>
+      </c>
+      <c r="R5">
+        <v>58</v>
+      </c>
+      <c r="S5">
+        <v>32</v>
+      </c>
+      <c r="T5">
+        <v>32</v>
+      </c>
+      <c r="U5">
+        <v>32</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>32</v>
+      </c>
+      <c r="Z5">
+        <v>0.9</v>
+      </c>
+      <c r="AA5">
+        <v>0.01</v>
+      </c>
+      <c r="AB5">
+        <v>32</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>0.3</v>
+      </c>
+      <c r="AE5">
+        <v>0.95</v>
+      </c>
+      <c r="AF5">
+        <v>0.001</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0.75</v>
+      </c>
+      <c r="AK5">
+        <v>8</v>
+      </c>
+      <c r="AL5">
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <v>-5</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6">
+        <v>20.74681055148443</v>
+      </c>
+      <c r="B6">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="C6">
+        <v>3.76</v>
+      </c>
+      <c r="D6">
+        <v>13.27</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>128</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>54</v>
+      </c>
+      <c r="P6">
+        <v>168</v>
+      </c>
+      <c r="Q6">
+        <v>58</v>
+      </c>
+      <c r="R6">
+        <v>58</v>
+      </c>
+      <c r="S6">
+        <v>32</v>
+      </c>
+      <c r="T6">
+        <v>32</v>
+      </c>
+      <c r="U6">
+        <v>32</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>32</v>
+      </c>
+      <c r="Z6">
+        <v>0.9</v>
+      </c>
+      <c r="AA6">
+        <v>0.01</v>
+      </c>
+      <c r="AB6">
+        <v>32</v>
+      </c>
+      <c r="AC6">
+        <v>10</v>
+      </c>
+      <c r="AD6">
+        <v>0.3</v>
+      </c>
+      <c r="AE6">
+        <v>0.95</v>
+      </c>
+      <c r="AF6">
+        <v>0.001</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0.75</v>
+      </c>
+      <c r="AK6">
+        <v>8</v>
+      </c>
+      <c r="AL6">
+        <v>5</v>
+      </c>
+      <c r="AM6">
+        <v>-5</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7">
+        <v>20.45671214660009</v>
+      </c>
+      <c r="B7">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="C7">
+        <v>3.72</v>
+      </c>
+      <c r="D7">
+        <v>12.8</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>128</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7">
+        <v>54</v>
+      </c>
+      <c r="P7">
+        <v>168</v>
+      </c>
+      <c r="Q7">
+        <v>58</v>
+      </c>
+      <c r="R7">
+        <v>58</v>
+      </c>
+      <c r="S7">
+        <v>32</v>
+      </c>
+      <c r="T7">
+        <v>32</v>
+      </c>
+      <c r="U7">
+        <v>32</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>32</v>
+      </c>
+      <c r="Z7">
+        <v>0.9</v>
+      </c>
+      <c r="AA7">
+        <v>0.01</v>
+      </c>
+      <c r="AB7">
+        <v>32</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>0.3</v>
+      </c>
+      <c r="AE7">
+        <v>0.95</v>
+      </c>
+      <c r="AF7">
+        <v>0.001</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>0.75</v>
+      </c>
+      <c r="AK7">
+        <v>8</v>
+      </c>
+      <c r="AL7">
+        <v>5</v>
+      </c>
+      <c r="AM7">
+        <v>-5</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8">
+        <v>10.74654963413874</v>
+      </c>
+      <c r="B8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="C8">
+        <v>3.72</v>
+      </c>
+      <c r="D8">
+        <v>13.69</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>128</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8">
+        <v>54</v>
+      </c>
+      <c r="P8">
+        <v>168</v>
+      </c>
+      <c r="Q8">
+        <v>58</v>
+      </c>
+      <c r="R8">
+        <v>58</v>
+      </c>
+      <c r="S8">
+        <v>32</v>
+      </c>
+      <c r="T8">
+        <v>32</v>
+      </c>
+      <c r="U8">
+        <v>32</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>32</v>
+      </c>
+      <c r="Z8">
+        <v>0.9</v>
+      </c>
+      <c r="AA8">
+        <v>0.01</v>
+      </c>
+      <c r="AB8">
+        <v>32</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8">
+        <v>0.3</v>
+      </c>
+      <c r="AE8">
+        <v>0.95</v>
+      </c>
+      <c r="AF8">
+        <v>0.001</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0.75</v>
+      </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
+      <c r="AL8">
+        <v>5</v>
+      </c>
+      <c r="AM8">
+        <v>-5</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9">
+        <v>11.09661258459091</v>
+      </c>
+      <c r="B9">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C9">
+        <v>3.8</v>
+      </c>
+      <c r="D9">
+        <v>12.42</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <v>168</v>
+      </c>
+      <c r="Q9">
+        <v>58</v>
+      </c>
+      <c r="R9">
+        <v>58</v>
+      </c>
+      <c r="S9">
+        <v>32</v>
+      </c>
+      <c r="T9">
+        <v>32</v>
+      </c>
+      <c r="U9">
+        <v>32</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>32</v>
+      </c>
+      <c r="Z9">
+        <v>0.9</v>
+      </c>
+      <c r="AA9">
+        <v>0.01</v>
+      </c>
+      <c r="AB9">
+        <v>32</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>0.3</v>
+      </c>
+      <c r="AE9">
+        <v>0.95</v>
+      </c>
+      <c r="AF9">
+        <v>0.001</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0.75</v>
+      </c>
+      <c r="AK9">
+        <v>8</v>
+      </c>
+      <c r="AL9">
+        <v>5</v>
+      </c>
+      <c r="AM9">
+        <v>-5</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10">
+        <v>10.89122907320658</v>
+      </c>
+      <c r="B10">
+        <v>0.5252525252525253</v>
+      </c>
+      <c r="C10">
+        <v>3.91</v>
+      </c>
+      <c r="D10">
+        <v>13.33</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10">
+        <v>54</v>
+      </c>
+      <c r="P10">
+        <v>168</v>
+      </c>
+      <c r="Q10">
+        <v>58</v>
+      </c>
+      <c r="R10">
+        <v>58</v>
+      </c>
+      <c r="S10">
+        <v>32</v>
+      </c>
+      <c r="T10">
+        <v>32</v>
+      </c>
+      <c r="U10">
+        <v>32</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>32</v>
+      </c>
+      <c r="Z10">
+        <v>0.9</v>
+      </c>
+      <c r="AA10">
+        <v>0.01</v>
+      </c>
+      <c r="AB10">
+        <v>32</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>0.3</v>
+      </c>
+      <c r="AE10">
+        <v>0.95</v>
+      </c>
+      <c r="AF10">
+        <v>0.001</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>0.75</v>
+      </c>
+      <c r="AK10">
+        <v>8</v>
+      </c>
+      <c r="AL10">
+        <v>5</v>
+      </c>
+      <c r="AM10">
+        <v>-5</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11">
+        <v>8.22238165140152</v>
+      </c>
+      <c r="B11">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="C11">
+        <v>3.68</v>
+      </c>
+      <c r="D11">
+        <v>12.98</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11">
+        <v>54</v>
+      </c>
+      <c r="P11">
+        <v>168</v>
+      </c>
+      <c r="Q11">
+        <v>58</v>
+      </c>
+      <c r="R11">
+        <v>58</v>
+      </c>
+      <c r="S11">
+        <v>32</v>
+      </c>
+      <c r="T11">
+        <v>32</v>
+      </c>
+      <c r="U11">
+        <v>32</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>32</v>
+      </c>
+      <c r="Z11">
+        <v>0.9</v>
+      </c>
+      <c r="AA11">
+        <v>0.01</v>
+      </c>
+      <c r="AB11">
+        <v>32</v>
+      </c>
+      <c r="AC11">
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <v>0.3</v>
+      </c>
+      <c r="AE11">
+        <v>0.95</v>
+      </c>
+      <c r="AF11">
+        <v>0.001</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>0.75</v>
+      </c>
+      <c r="AK11">
+        <v>8</v>
+      </c>
+      <c r="AL11">
+        <v>5</v>
+      </c>
+      <c r="AM11">
+        <v>-5</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12">
+        <v>8.189760696887969</v>
+      </c>
+      <c r="B12">
+        <v>0.4747474747474748</v>
+      </c>
+      <c r="C12">
+        <v>3.63</v>
+      </c>
+      <c r="D12">
+        <v>12.82</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>128</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>54</v>
+      </c>
+      <c r="P12">
+        <v>168</v>
+      </c>
+      <c r="Q12">
+        <v>58</v>
+      </c>
+      <c r="R12">
+        <v>58</v>
+      </c>
+      <c r="S12">
+        <v>32</v>
+      </c>
+      <c r="T12">
+        <v>32</v>
+      </c>
+      <c r="U12">
+        <v>32</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>32</v>
+      </c>
+      <c r="Z12">
+        <v>0.9</v>
+      </c>
+      <c r="AA12">
+        <v>0.01</v>
+      </c>
+      <c r="AB12">
+        <v>32</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>0.3</v>
+      </c>
+      <c r="AE12">
+        <v>0.95</v>
+      </c>
+      <c r="AF12">
+        <v>0.001</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0.75</v>
+      </c>
+      <c r="AK12">
+        <v>8</v>
+      </c>
+      <c r="AL12">
+        <v>5</v>
+      </c>
+      <c r="AM12">
+        <v>-5</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13">
+        <v>8.071684153874715</v>
+      </c>
+      <c r="B13">
+        <v>0.3838383838383838</v>
+      </c>
+      <c r="C13">
+        <v>3.64</v>
+      </c>
+      <c r="D13">
+        <v>14.28</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13">
+        <v>54</v>
+      </c>
+      <c r="P13">
+        <v>168</v>
+      </c>
+      <c r="Q13">
+        <v>58</v>
+      </c>
+      <c r="R13">
+        <v>58</v>
+      </c>
+      <c r="S13">
+        <v>32</v>
+      </c>
+      <c r="T13">
+        <v>32</v>
+      </c>
+      <c r="U13">
+        <v>32</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>32</v>
+      </c>
+      <c r="Z13">
+        <v>0.9</v>
+      </c>
+      <c r="AA13">
+        <v>0.01</v>
+      </c>
+      <c r="AB13">
+        <v>32</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>0.3</v>
+      </c>
+      <c r="AE13">
+        <v>0.95</v>
+      </c>
+      <c r="AF13">
+        <v>0.001</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>0.75</v>
+      </c>
+      <c r="AK13">
+        <v>8</v>
+      </c>
+      <c r="AL13">
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <v>-5</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/run-data.xlsx
+++ b/run-data.xlsx
@@ -151,7 +151,7 @@
     <t>no_structure</t>
   </si>
   <si>
-    <t>very hard</t>
+    <t>very easy</t>
   </si>
 </sst>
 </file>
@@ -642,16 +642,16 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2">
-        <v>31.52176719506582</v>
+        <v>31.22534311612447</v>
       </c>
       <c r="B2">
-        <v>0.4242424242424243</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="C2">
-        <v>3.69</v>
+        <v>3.89</v>
       </c>
       <c r="D2">
-        <v>13.39</v>
+        <v>17.38</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -684,16 +684,16 @@
         <v>41</v>
       </c>
       <c r="O2">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P2">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q2">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R2">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S2">
         <v>32</v>
@@ -767,16 +767,16 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3">
-        <v>28.10683162212372</v>
+        <v>31.61318896214167</v>
       </c>
       <c r="B3">
-        <v>0.3535353535353535</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C3">
-        <v>3.68</v>
+        <v>3.91</v>
       </c>
       <c r="D3">
-        <v>15.8</v>
+        <v>16.56</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -809,16 +809,16 @@
         <v>41</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P3">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q3">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R3">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S3">
         <v>32</v>
@@ -892,16 +892,16 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4">
-        <v>29.55733622312546</v>
+        <v>33.53106116453807</v>
       </c>
       <c r="B4">
-        <v>0.4343434343434344</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C4">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="D4">
-        <v>13.32</v>
+        <v>15.72</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -934,16 +934,16 @@
         <v>41</v>
       </c>
       <c r="O4">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P4">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q4">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R4">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S4">
         <v>32</v>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5">
-        <v>20.5165269056956</v>
+        <v>20.50241411526998</v>
       </c>
       <c r="B5">
-        <v>0.5050505050505051</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C5">
-        <v>3.89</v>
+        <v>3.95</v>
       </c>
       <c r="D5">
-        <v>12.85</v>
+        <v>18.25</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1059,16 +1059,16 @@
         <v>42</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P5">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q5">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R5">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S5">
         <v>32</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6">
-        <v>20.74681055148443</v>
+        <v>20.97510018348694</v>
       </c>
       <c r="B6">
-        <v>0.4545454545454545</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="C6">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="D6">
-        <v>13.27</v>
+        <v>17.72</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1184,16 +1184,16 @@
         <v>42</v>
       </c>
       <c r="O6">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P6">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q6">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R6">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S6">
         <v>32</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7">
-        <v>20.45671214660009</v>
+        <v>21.01098755598068</v>
       </c>
       <c r="B7">
-        <v>0.5151515151515151</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="C7">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="D7">
-        <v>12.8</v>
+        <v>17.21</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1309,16 +1309,16 @@
         <v>42</v>
       </c>
       <c r="O7">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P7">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R7">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S7">
         <v>32</v>
@@ -1392,16 +1392,16 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8">
-        <v>10.74654963413874</v>
+        <v>11.10944559176763</v>
       </c>
       <c r="B8">
-        <v>0.4545454545454545</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="C8">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="D8">
-        <v>13.69</v>
+        <v>16.46</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1434,16 +1434,16 @@
         <v>43</v>
       </c>
       <c r="O8">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P8">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q8">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R8">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S8">
         <v>32</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9">
-        <v>11.09661258459091</v>
+        <v>11.95082873503367</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D9">
-        <v>12.42</v>
+        <v>15.49</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -1559,16 +1559,16 @@
         <v>43</v>
       </c>
       <c r="O9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P9">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S9">
         <v>32</v>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10">
-        <v>10.89122907320658</v>
+        <v>11.89163700342178</v>
       </c>
       <c r="B10">
-        <v>0.5252525252525253</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="C10">
-        <v>3.91</v>
+        <v>3.75</v>
       </c>
       <c r="D10">
-        <v>13.33</v>
+        <v>14.42</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -1684,16 +1684,16 @@
         <v>43</v>
       </c>
       <c r="O10">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P10">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q10">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R10">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S10">
         <v>32</v>
@@ -1767,16 +1767,16 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11">
-        <v>8.22238165140152</v>
+        <v>8.372995054721832</v>
       </c>
       <c r="B11">
-        <v>0.5151515151515151</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C11">
-        <v>3.68</v>
+        <v>3.82</v>
       </c>
       <c r="D11">
-        <v>12.98</v>
+        <v>16.87</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -1809,16 +1809,16 @@
         <v>44</v>
       </c>
       <c r="O11">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P11">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q11">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R11">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S11">
         <v>32</v>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12">
-        <v>8.189760696887969</v>
+        <v>8.535145397981008</v>
       </c>
       <c r="B12">
-        <v>0.4747474747474748</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="C12">
-        <v>3.63</v>
+        <v>3.91</v>
       </c>
       <c r="D12">
-        <v>12.82</v>
+        <v>17.42</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -1934,16 +1934,16 @@
         <v>44</v>
       </c>
       <c r="O12">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P12">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q12">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R12">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S12">
         <v>32</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13">
-        <v>8.071684153874715</v>
+        <v>8.086561504999796</v>
       </c>
       <c r="B13">
-        <v>0.3838383838383838</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="C13">
-        <v>3.64</v>
+        <v>3.79</v>
       </c>
       <c r="D13">
-        <v>14.28</v>
+        <v>16.81</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -2059,16 +2059,16 @@
         <v>44</v>
       </c>
       <c r="O13">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P13">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="Q13">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="R13">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="S13">
         <v>32</v>

--- a/run-data.xlsx
+++ b/run-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>total_time_taken(m)</t>
   </si>
@@ -124,6 +124,9 @@
     <t>A_critic_agg_weight</t>
   </si>
   <si>
+    <t>A_combined_actor_critic</t>
+  </si>
+  <si>
     <t>O_num_agents</t>
   </si>
   <si>
@@ -139,19 +142,10 @@
     <t>O_data</t>
   </si>
   <si>
-    <t>deepmind</t>
-  </si>
-  <si>
     <t>nervenet</t>
   </si>
   <si>
-    <t>fully_connected</t>
-  </si>
-  <si>
-    <t>no_structure</t>
-  </si>
-  <si>
-    <t>very easy</t>
+    <t>toy2</t>
   </si>
 </sst>
 </file>
@@ -509,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,34 +633,37 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42">
       <c r="A2">
-        <v>31.22534311612447</v>
+        <v>9.770392139752706</v>
       </c>
       <c r="B2">
-        <v>0.2828282828282828</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="C2">
-        <v>3.89</v>
+        <v>3.52</v>
       </c>
       <c r="D2">
-        <v>17.38</v>
+        <v>6.97</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <v>128</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -681,19 +678,19 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2">
         <v>41</v>
       </c>
-      <c r="O2">
-        <v>76</v>
-      </c>
       <c r="P2">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q2">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R2">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S2">
         <v>32</v>
@@ -749,49 +746,52 @@
       <c r="AJ2">
         <v>0.75</v>
       </c>
-      <c r="AK2">
-        <v>8</v>
+      <c r="AK2" t="b">
+        <v>0</v>
       </c>
       <c r="AL2">
+        <v>8</v>
+      </c>
+      <c r="AM2">
         <v>5</v>
       </c>
-      <c r="AM2">
-        <v>-5</v>
-      </c>
       <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>45</v>
+        <v>-2</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3">
-        <v>31.61318896214167</v>
+        <v>9.542035957177481</v>
       </c>
       <c r="B3">
-        <v>0.2222222222222222</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="C3">
-        <v>3.91</v>
+        <v>3.55</v>
       </c>
       <c r="D3">
-        <v>16.56</v>
+        <v>7.06</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F3">
         <v>128</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>6</v>
       </c>
       <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3">
         <v>41</v>
       </c>
-      <c r="O3">
-        <v>76</v>
-      </c>
       <c r="P3">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q3">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R3">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S3">
         <v>32</v>
@@ -874,49 +874,52 @@
       <c r="AJ3">
         <v>0.75</v>
       </c>
-      <c r="AK3">
-        <v>8</v>
+      <c r="AK3" t="b">
+        <v>0</v>
       </c>
       <c r="AL3">
+        <v>8</v>
+      </c>
+      <c r="AM3">
         <v>5</v>
       </c>
-      <c r="AM3">
-        <v>-5</v>
-      </c>
       <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>45</v>
+        <v>-2</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42">
       <c r="A4">
-        <v>33.53106116453807</v>
+        <v>9.385571563243866</v>
       </c>
       <c r="B4">
-        <v>0.3131313131313131</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C4">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="D4">
-        <v>15.72</v>
+        <v>6.76</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -931,19 +934,19 @@
         <v>6</v>
       </c>
       <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4">
         <v>41</v>
       </c>
-      <c r="O4">
-        <v>76</v>
-      </c>
       <c r="P4">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q4">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R4">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S4">
         <v>32</v>
@@ -999,49 +1002,52 @@
       <c r="AJ4">
         <v>0.75</v>
       </c>
-      <c r="AK4">
-        <v>8</v>
+      <c r="AK4" t="b">
+        <v>0</v>
       </c>
       <c r="AL4">
+        <v>8</v>
+      </c>
+      <c r="AM4">
         <v>5</v>
       </c>
-      <c r="AM4">
-        <v>-5</v>
-      </c>
       <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>45</v>
+        <v>-2</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42">
       <c r="A5">
-        <v>20.50241411526998</v>
+        <v>9.431532001495361</v>
       </c>
       <c r="B5">
-        <v>0.202020202020202</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C5">
-        <v>3.95</v>
+        <v>3.66</v>
       </c>
       <c r="D5">
-        <v>18.25</v>
+        <v>6.88</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F5">
         <v>128</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1059,16 +1065,16 @@
         <v>42</v>
       </c>
       <c r="O5">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P5">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q5">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R5">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S5">
         <v>32</v>
@@ -1124,49 +1130,52 @@
       <c r="AJ5">
         <v>0.75</v>
       </c>
-      <c r="AK5">
-        <v>8</v>
+      <c r="AK5" t="b">
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
         <v>-5</v>
       </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>45</v>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42">
       <c r="A6">
-        <v>20.97510018348694</v>
+        <v>9.954400626818339</v>
       </c>
       <c r="B6">
-        <v>0.2626262626262627</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C6">
-        <v>3.79</v>
+        <v>3.61</v>
       </c>
       <c r="D6">
-        <v>17.72</v>
+        <v>6.87</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>128</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1184,16 +1193,16 @@
         <v>42</v>
       </c>
       <c r="O6">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P6">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q6">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R6">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S6">
         <v>32</v>
@@ -1249,49 +1258,52 @@
       <c r="AJ6">
         <v>0.75</v>
       </c>
-      <c r="AK6">
-        <v>8</v>
+      <c r="AK6" t="b">
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM6">
+        <v>10</v>
+      </c>
+      <c r="AN6">
         <v>-5</v>
       </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>45</v>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7">
-        <v>21.01098755598068</v>
+        <v>9.700363119443258</v>
       </c>
       <c r="B7">
-        <v>0.2323232323232323</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C7">
-        <v>3.85</v>
+        <v>3.67</v>
       </c>
       <c r="D7">
-        <v>17.21</v>
+        <v>6.62</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F7">
         <v>128</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1309,16 +1321,16 @@
         <v>42</v>
       </c>
       <c r="O7">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P7">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q7">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R7">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S7">
         <v>32</v>
@@ -1374,49 +1386,52 @@
       <c r="AJ7">
         <v>0.75</v>
       </c>
-      <c r="AK7">
-        <v>8</v>
+      <c r="AK7" t="b">
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
         <v>-5</v>
       </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>45</v>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42">
       <c r="A8">
-        <v>11.10944559176763</v>
+        <v>9.356349666913351</v>
       </c>
       <c r="B8">
-        <v>0.2626262626262627</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C8">
-        <v>3.87</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>16.46</v>
+        <v>6.62</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F8">
         <v>128</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1431,19 +1446,19 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P8">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q8">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R8">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S8">
         <v>32</v>
@@ -1499,49 +1514,52 @@
       <c r="AJ8">
         <v>0.75</v>
       </c>
-      <c r="AK8">
-        <v>8</v>
+      <c r="AK8" t="b">
+        <v>0</v>
       </c>
       <c r="AL8">
+        <v>8</v>
+      </c>
+      <c r="AM8">
         <v>5</v>
       </c>
-      <c r="AM8">
-        <v>-5</v>
-      </c>
       <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>45</v>
+        <v>-10</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42">
       <c r="A9">
-        <v>11.95082873503367</v>
+        <v>9.457663134733837</v>
       </c>
       <c r="B9">
-        <v>0.3434343434343434</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.71</v>
       </c>
       <c r="D9">
-        <v>15.49</v>
+        <v>7.08</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F9">
         <v>128</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1556,19 +1574,19 @@
         <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P9">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S9">
         <v>32</v>
@@ -1624,49 +1642,52 @@
       <c r="AJ9">
         <v>0.75</v>
       </c>
-      <c r="AK9">
-        <v>8</v>
+      <c r="AK9" t="b">
+        <v>0</v>
       </c>
       <c r="AL9">
+        <v>8</v>
+      </c>
+      <c r="AM9">
         <v>5</v>
       </c>
-      <c r="AM9">
-        <v>-5</v>
-      </c>
       <c r="AN9">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>45</v>
+        <v>-10</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42">
       <c r="A10">
-        <v>11.89163700342178</v>
+        <v>9.457795087496439</v>
       </c>
       <c r="B10">
-        <v>0.4141414141414141</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="D10">
-        <v>14.42</v>
+        <v>7.03</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <v>128</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -1681,19 +1702,19 @@
         <v>6</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P10">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q10">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R10">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S10">
         <v>32</v>
@@ -1749,49 +1770,52 @@
       <c r="AJ10">
         <v>0.75</v>
       </c>
-      <c r="AK10">
-        <v>8</v>
+      <c r="AK10" t="b">
+        <v>0</v>
       </c>
       <c r="AL10">
+        <v>8</v>
+      </c>
+      <c r="AM10">
         <v>5</v>
       </c>
-      <c r="AM10">
-        <v>-5</v>
-      </c>
       <c r="AN10">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>45</v>
+        <v>-10</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11">
-        <v>8.372995054721832</v>
+        <v>9.471425342559815</v>
       </c>
       <c r="B11">
-        <v>0.2424242424242424</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C11">
-        <v>3.82</v>
+        <v>3.61</v>
       </c>
       <c r="D11">
-        <v>16.87</v>
+        <v>6.77</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F11">
         <v>128</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1806,19 +1830,19 @@
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O11">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P11">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q11">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R11">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S11">
         <v>32</v>
@@ -1874,49 +1898,52 @@
       <c r="AJ11">
         <v>0.75</v>
       </c>
-      <c r="AK11">
-        <v>8</v>
+      <c r="AK11" t="b">
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM11">
+        <v>10</v>
+      </c>
+      <c r="AN11">
         <v>-5</v>
       </c>
-      <c r="AN11">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>45</v>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12">
-        <v>8.535145397981008</v>
+        <v>9.724415079752605</v>
       </c>
       <c r="B12">
-        <v>0.1717171717171717</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C12">
-        <v>3.91</v>
+        <v>3.58</v>
       </c>
       <c r="D12">
-        <v>17.42</v>
+        <v>6.67</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F12">
         <v>128</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>100</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1931,19 +1958,19 @@
         <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O12">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P12">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q12">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R12">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S12">
         <v>32</v>
@@ -1999,49 +2026,52 @@
       <c r="AJ12">
         <v>0.75</v>
       </c>
-      <c r="AK12">
-        <v>8</v>
+      <c r="AK12" t="b">
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
         <v>-5</v>
       </c>
-      <c r="AN12">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>45</v>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42">
       <c r="A13">
-        <v>8.086561504999796</v>
+        <v>9.51093635559082</v>
       </c>
       <c r="B13">
-        <v>0.2323232323232323</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C13">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="D13">
-        <v>16.81</v>
+        <v>7.35</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F13">
         <v>128</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>100</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -2056,19 +2086,19 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O13">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P13">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q13">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R13">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S13">
         <v>32</v>
@@ -2124,20 +2154,2711 @@
       <c r="AJ13">
         <v>0.75</v>
       </c>
-      <c r="AK13">
-        <v>8</v>
+      <c r="AK13" t="b">
+        <v>0</v>
       </c>
       <c r="AL13">
+        <v>8</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13">
+        <v>-5</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14">
+        <v>9.656247814496359</v>
+      </c>
+      <c r="B14">
+        <v>0.2626262626262627</v>
+      </c>
+      <c r="C14">
+        <v>3.66</v>
+      </c>
+      <c r="D14">
+        <v>6.84</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14">
+        <v>41</v>
+      </c>
+      <c r="P14">
+        <v>215</v>
+      </c>
+      <c r="Q14">
+        <v>42</v>
+      </c>
+      <c r="R14">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>32</v>
+      </c>
+      <c r="T14">
+        <v>32</v>
+      </c>
+      <c r="U14">
+        <v>32</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>32</v>
+      </c>
+      <c r="Z14">
+        <v>0.9</v>
+      </c>
+      <c r="AA14">
+        <v>0.01</v>
+      </c>
+      <c r="AB14">
+        <v>32</v>
+      </c>
+      <c r="AC14">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>0.3</v>
+      </c>
+      <c r="AE14">
+        <v>0.95</v>
+      </c>
+      <c r="AF14">
+        <v>0.001</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0.75</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>8</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>-2</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15">
+        <v>9.345927798748017</v>
+      </c>
+      <c r="B15">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C15">
+        <v>3.59</v>
+      </c>
+      <c r="D15">
+        <v>7.14</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>128</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15">
+        <v>41</v>
+      </c>
+      <c r="P15">
+        <v>215</v>
+      </c>
+      <c r="Q15">
+        <v>42</v>
+      </c>
+      <c r="R15">
+        <v>42</v>
+      </c>
+      <c r="S15">
+        <v>32</v>
+      </c>
+      <c r="T15">
+        <v>32</v>
+      </c>
+      <c r="U15">
+        <v>32</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>32</v>
+      </c>
+      <c r="Z15">
+        <v>0.9</v>
+      </c>
+      <c r="AA15">
+        <v>0.01</v>
+      </c>
+      <c r="AB15">
+        <v>32</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>0.3</v>
+      </c>
+      <c r="AE15">
+        <v>0.95</v>
+      </c>
+      <c r="AF15">
+        <v>0.001</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0.75</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>8</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>-2</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16">
+        <v>9.439344414075215</v>
+      </c>
+      <c r="B16">
+        <v>0.3131313131313131</v>
+      </c>
+      <c r="C16">
+        <v>3.52</v>
+      </c>
+      <c r="D16">
+        <v>6.82</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16">
+        <v>41</v>
+      </c>
+      <c r="P16">
+        <v>215</v>
+      </c>
+      <c r="Q16">
+        <v>42</v>
+      </c>
+      <c r="R16">
+        <v>42</v>
+      </c>
+      <c r="S16">
+        <v>32</v>
+      </c>
+      <c r="T16">
+        <v>32</v>
+      </c>
+      <c r="U16">
+        <v>32</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>32</v>
+      </c>
+      <c r="Z16">
+        <v>0.9</v>
+      </c>
+      <c r="AA16">
+        <v>0.01</v>
+      </c>
+      <c r="AB16">
+        <v>32</v>
+      </c>
+      <c r="AC16">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>0.3</v>
+      </c>
+      <c r="AE16">
+        <v>0.95</v>
+      </c>
+      <c r="AF16">
+        <v>0.001</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0.75</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>8</v>
+      </c>
+      <c r="AM16">
+        <v>2</v>
+      </c>
+      <c r="AN16">
+        <v>-2</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17">
+        <v>9.553007423877716</v>
+      </c>
+      <c r="B17">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="C17">
+        <v>3.64</v>
+      </c>
+      <c r="D17">
+        <v>6.94</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>128</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17">
+        <v>41</v>
+      </c>
+      <c r="P17">
+        <v>215</v>
+      </c>
+      <c r="Q17">
+        <v>42</v>
+      </c>
+      <c r="R17">
+        <v>42</v>
+      </c>
+      <c r="S17">
+        <v>32</v>
+      </c>
+      <c r="T17">
+        <v>32</v>
+      </c>
+      <c r="U17">
+        <v>32</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>32</v>
+      </c>
+      <c r="Z17">
+        <v>0.9</v>
+      </c>
+      <c r="AA17">
+        <v>0.01</v>
+      </c>
+      <c r="AB17">
+        <v>32</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>0.3</v>
+      </c>
+      <c r="AE17">
+        <v>0.95</v>
+      </c>
+      <c r="AF17">
+        <v>0.001</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>0.75</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>8</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>-2</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18">
+        <v>9.764042945702871</v>
+      </c>
+      <c r="B18">
+        <v>0.2626262626262627</v>
+      </c>
+      <c r="C18">
+        <v>3.58</v>
+      </c>
+      <c r="D18">
+        <v>7.03</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>128</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18">
+        <v>41</v>
+      </c>
+      <c r="P18">
+        <v>215</v>
+      </c>
+      <c r="Q18">
+        <v>42</v>
+      </c>
+      <c r="R18">
+        <v>42</v>
+      </c>
+      <c r="S18">
+        <v>32</v>
+      </c>
+      <c r="T18">
+        <v>32</v>
+      </c>
+      <c r="U18">
+        <v>32</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>32</v>
+      </c>
+      <c r="Z18">
+        <v>0.9</v>
+      </c>
+      <c r="AA18">
+        <v>0.01</v>
+      </c>
+      <c r="AB18">
+        <v>32</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>0.3</v>
+      </c>
+      <c r="AE18">
+        <v>0.95</v>
+      </c>
+      <c r="AF18">
+        <v>0.001</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>0.75</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>8</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+      <c r="AN18">
+        <v>-2</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19">
+        <v>9.728737215201059</v>
+      </c>
+      <c r="B19">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C19">
+        <v>3.63</v>
+      </c>
+      <c r="D19">
+        <v>6.9</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19">
+        <v>128</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19">
+        <v>41</v>
+      </c>
+      <c r="P19">
+        <v>215</v>
+      </c>
+      <c r="Q19">
+        <v>42</v>
+      </c>
+      <c r="R19">
+        <v>42</v>
+      </c>
+      <c r="S19">
+        <v>32</v>
+      </c>
+      <c r="T19">
+        <v>32</v>
+      </c>
+      <c r="U19">
+        <v>32</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>32</v>
+      </c>
+      <c r="Z19">
+        <v>0.9</v>
+      </c>
+      <c r="AA19">
+        <v>0.01</v>
+      </c>
+      <c r="AB19">
+        <v>32</v>
+      </c>
+      <c r="AC19">
+        <v>10</v>
+      </c>
+      <c r="AD19">
+        <v>0.3</v>
+      </c>
+      <c r="AE19">
+        <v>0.95</v>
+      </c>
+      <c r="AF19">
+        <v>0.001</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>0.75</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>8</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>-2</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20">
+        <v>9.822686127821605</v>
+      </c>
+      <c r="B20">
+        <v>0.2626262626262627</v>
+      </c>
+      <c r="C20">
+        <v>3.54</v>
+      </c>
+      <c r="D20">
+        <v>7.11</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20">
+        <v>128</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20">
+        <v>41</v>
+      </c>
+      <c r="P20">
+        <v>215</v>
+      </c>
+      <c r="Q20">
+        <v>42</v>
+      </c>
+      <c r="R20">
+        <v>42</v>
+      </c>
+      <c r="S20">
+        <v>32</v>
+      </c>
+      <c r="T20">
+        <v>32</v>
+      </c>
+      <c r="U20">
+        <v>32</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>32</v>
+      </c>
+      <c r="Z20">
+        <v>0.9</v>
+      </c>
+      <c r="AA20">
+        <v>0.01</v>
+      </c>
+      <c r="AB20">
+        <v>32</v>
+      </c>
+      <c r="AC20">
+        <v>10</v>
+      </c>
+      <c r="AD20">
+        <v>0.3</v>
+      </c>
+      <c r="AE20">
+        <v>0.95</v>
+      </c>
+      <c r="AF20">
+        <v>0.001</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>0.75</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>8</v>
+      </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20">
+        <v>-10</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21">
+        <v>10.11651712656021</v>
+      </c>
+      <c r="B21">
+        <v>0.3434343434343434</v>
+      </c>
+      <c r="C21">
+        <v>3.52</v>
+      </c>
+      <c r="D21">
+        <v>6.82</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
+      </c>
+      <c r="F21">
+        <v>128</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21">
+        <v>41</v>
+      </c>
+      <c r="P21">
+        <v>215</v>
+      </c>
+      <c r="Q21">
+        <v>42</v>
+      </c>
+      <c r="R21">
+        <v>42</v>
+      </c>
+      <c r="S21">
+        <v>32</v>
+      </c>
+      <c r="T21">
+        <v>32</v>
+      </c>
+      <c r="U21">
+        <v>32</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>32</v>
+      </c>
+      <c r="Z21">
+        <v>0.9</v>
+      </c>
+      <c r="AA21">
+        <v>0.01</v>
+      </c>
+      <c r="AB21">
+        <v>32</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>0.3</v>
+      </c>
+      <c r="AE21">
+        <v>0.95</v>
+      </c>
+      <c r="AF21">
+        <v>0.001</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>0.75</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>8</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
+        <v>-10</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22">
+        <v>9.545294499397277</v>
+      </c>
+      <c r="B22">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="C22">
+        <v>3.66</v>
+      </c>
+      <c r="D22">
+        <v>6.92</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>128</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22">
+        <v>41</v>
+      </c>
+      <c r="P22">
+        <v>215</v>
+      </c>
+      <c r="Q22">
+        <v>42</v>
+      </c>
+      <c r="R22">
+        <v>42</v>
+      </c>
+      <c r="S22">
+        <v>32</v>
+      </c>
+      <c r="T22">
+        <v>32</v>
+      </c>
+      <c r="U22">
+        <v>32</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>32</v>
+      </c>
+      <c r="Z22">
+        <v>0.9</v>
+      </c>
+      <c r="AA22">
+        <v>0.01</v>
+      </c>
+      <c r="AB22">
+        <v>32</v>
+      </c>
+      <c r="AC22">
+        <v>10</v>
+      </c>
+      <c r="AD22">
+        <v>0.3</v>
+      </c>
+      <c r="AE22">
+        <v>0.95</v>
+      </c>
+      <c r="AF22">
+        <v>0.001</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>0.75</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>8</v>
+      </c>
+      <c r="AM22">
+        <v>2</v>
+      </c>
+      <c r="AN22">
+        <v>-10</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23">
+        <v>9.587398576736451</v>
+      </c>
+      <c r="B23">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="C23">
+        <v>3.63</v>
+      </c>
+      <c r="D23">
+        <v>7.07</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <v>128</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23">
+        <v>41</v>
+      </c>
+      <c r="P23">
+        <v>215</v>
+      </c>
+      <c r="Q23">
+        <v>42</v>
+      </c>
+      <c r="R23">
+        <v>42</v>
+      </c>
+      <c r="S23">
+        <v>32</v>
+      </c>
+      <c r="T23">
+        <v>32</v>
+      </c>
+      <c r="U23">
+        <v>32</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>32</v>
+      </c>
+      <c r="Z23">
+        <v>0.9</v>
+      </c>
+      <c r="AA23">
+        <v>0.01</v>
+      </c>
+      <c r="AB23">
+        <v>32</v>
+      </c>
+      <c r="AC23">
+        <v>10</v>
+      </c>
+      <c r="AD23">
+        <v>0.3</v>
+      </c>
+      <c r="AE23">
+        <v>0.95</v>
+      </c>
+      <c r="AF23">
+        <v>0.001</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>0.75</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>8</v>
+      </c>
+      <c r="AM23">
+        <v>10</v>
+      </c>
+      <c r="AN23">
+        <v>-2</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24">
+        <v>9.508966739972433</v>
+      </c>
+      <c r="B24">
+        <v>0.404040404040404</v>
+      </c>
+      <c r="C24">
+        <v>3.51</v>
+      </c>
+      <c r="D24">
+        <v>6.86</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>128</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24">
+        <v>41</v>
+      </c>
+      <c r="P24">
+        <v>215</v>
+      </c>
+      <c r="Q24">
+        <v>42</v>
+      </c>
+      <c r="R24">
+        <v>42</v>
+      </c>
+      <c r="S24">
+        <v>32</v>
+      </c>
+      <c r="T24">
+        <v>32</v>
+      </c>
+      <c r="U24">
+        <v>32</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>32</v>
+      </c>
+      <c r="Z24">
+        <v>0.9</v>
+      </c>
+      <c r="AA24">
+        <v>0.01</v>
+      </c>
+      <c r="AB24">
+        <v>32</v>
+      </c>
+      <c r="AC24">
+        <v>10</v>
+      </c>
+      <c r="AD24">
+        <v>0.3</v>
+      </c>
+      <c r="AE24">
+        <v>0.95</v>
+      </c>
+      <c r="AF24">
+        <v>0.001</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0.75</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>8</v>
+      </c>
+      <c r="AM24">
+        <v>10</v>
+      </c>
+      <c r="AN24">
+        <v>-2</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25">
+        <v>9.802822570006052</v>
+      </c>
+      <c r="B25">
+        <v>0.2828282828282828</v>
+      </c>
+      <c r="C25">
+        <v>3.73</v>
+      </c>
+      <c r="D25">
+        <v>6.84</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25">
+        <v>41</v>
+      </c>
+      <c r="P25">
+        <v>215</v>
+      </c>
+      <c r="Q25">
+        <v>42</v>
+      </c>
+      <c r="R25">
+        <v>42</v>
+      </c>
+      <c r="S25">
+        <v>32</v>
+      </c>
+      <c r="T25">
+        <v>32</v>
+      </c>
+      <c r="U25">
+        <v>32</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>32</v>
+      </c>
+      <c r="Z25">
+        <v>0.9</v>
+      </c>
+      <c r="AA25">
+        <v>0.01</v>
+      </c>
+      <c r="AB25">
+        <v>32</v>
+      </c>
+      <c r="AC25">
+        <v>10</v>
+      </c>
+      <c r="AD25">
+        <v>0.3</v>
+      </c>
+      <c r="AE25">
+        <v>0.95</v>
+      </c>
+      <c r="AF25">
+        <v>0.001</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>0.75</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>8</v>
+      </c>
+      <c r="AM25">
+        <v>10</v>
+      </c>
+      <c r="AN25">
+        <v>-2</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26">
+        <v>9.647055713335673</v>
+      </c>
+      <c r="B26">
+        <v>0.2525252525252525</v>
+      </c>
+      <c r="C26">
+        <v>3.58</v>
+      </c>
+      <c r="D26">
+        <v>6.88</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26">
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26">
+        <v>41</v>
+      </c>
+      <c r="P26">
+        <v>215</v>
+      </c>
+      <c r="Q26">
+        <v>42</v>
+      </c>
+      <c r="R26">
+        <v>42</v>
+      </c>
+      <c r="S26">
+        <v>32</v>
+      </c>
+      <c r="T26">
+        <v>32</v>
+      </c>
+      <c r="U26">
+        <v>32</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>32</v>
+      </c>
+      <c r="Z26">
+        <v>0.9</v>
+      </c>
+      <c r="AA26">
+        <v>0.01</v>
+      </c>
+      <c r="AB26">
+        <v>32</v>
+      </c>
+      <c r="AC26">
+        <v>10</v>
+      </c>
+      <c r="AD26">
+        <v>0.3</v>
+      </c>
+      <c r="AE26">
+        <v>0.95</v>
+      </c>
+      <c r="AF26">
+        <v>0.001</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>0.75</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>8</v>
+      </c>
+      <c r="AM26">
         <v>5</v>
       </c>
-      <c r="AM13">
+      <c r="AN26">
         <v>-5</v>
       </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>45</v>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27">
+        <v>9.746423387527466</v>
+      </c>
+      <c r="B27">
+        <v>0.3131313131313131</v>
+      </c>
+      <c r="C27">
+        <v>3.62</v>
+      </c>
+      <c r="D27">
+        <v>6.82</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27">
+        <v>128</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27">
+        <v>41</v>
+      </c>
+      <c r="P27">
+        <v>215</v>
+      </c>
+      <c r="Q27">
+        <v>42</v>
+      </c>
+      <c r="R27">
+        <v>42</v>
+      </c>
+      <c r="S27">
+        <v>32</v>
+      </c>
+      <c r="T27">
+        <v>32</v>
+      </c>
+      <c r="U27">
+        <v>32</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>32</v>
+      </c>
+      <c r="Z27">
+        <v>0.9</v>
+      </c>
+      <c r="AA27">
+        <v>0.01</v>
+      </c>
+      <c r="AB27">
+        <v>32</v>
+      </c>
+      <c r="AC27">
+        <v>10</v>
+      </c>
+      <c r="AD27">
+        <v>0.3</v>
+      </c>
+      <c r="AE27">
+        <v>0.95</v>
+      </c>
+      <c r="AF27">
+        <v>0.001</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27">
+        <v>0.75</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>8</v>
+      </c>
+      <c r="AM27">
+        <v>5</v>
+      </c>
+      <c r="AN27">
+        <v>-5</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28">
+        <v>9.620925601323446</v>
+      </c>
+      <c r="B28">
+        <v>0.4141414141414141</v>
+      </c>
+      <c r="C28">
+        <v>3.61</v>
+      </c>
+      <c r="D28">
+        <v>6.7</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>128</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28">
+        <v>41</v>
+      </c>
+      <c r="P28">
+        <v>215</v>
+      </c>
+      <c r="Q28">
+        <v>42</v>
+      </c>
+      <c r="R28">
+        <v>42</v>
+      </c>
+      <c r="S28">
+        <v>32</v>
+      </c>
+      <c r="T28">
+        <v>32</v>
+      </c>
+      <c r="U28">
+        <v>32</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>32</v>
+      </c>
+      <c r="Z28">
+        <v>0.9</v>
+      </c>
+      <c r="AA28">
+        <v>0.01</v>
+      </c>
+      <c r="AB28">
+        <v>32</v>
+      </c>
+      <c r="AC28">
+        <v>10</v>
+      </c>
+      <c r="AD28">
+        <v>0.3</v>
+      </c>
+      <c r="AE28">
+        <v>0.95</v>
+      </c>
+      <c r="AF28">
+        <v>0.001</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>0.75</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>8</v>
+      </c>
+      <c r="AM28">
+        <v>5</v>
+      </c>
+      <c r="AN28">
+        <v>-5</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29">
+        <v>9.688162469863892</v>
+      </c>
+      <c r="B29">
+        <v>0.2828282828282828</v>
+      </c>
+      <c r="C29">
+        <v>3.67</v>
+      </c>
+      <c r="D29">
+        <v>7.03</v>
+      </c>
+      <c r="E29">
+        <v>500</v>
+      </c>
+      <c r="F29">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29">
+        <v>41</v>
+      </c>
+      <c r="P29">
+        <v>215</v>
+      </c>
+      <c r="Q29">
+        <v>42</v>
+      </c>
+      <c r="R29">
+        <v>42</v>
+      </c>
+      <c r="S29">
+        <v>32</v>
+      </c>
+      <c r="T29">
+        <v>32</v>
+      </c>
+      <c r="U29">
+        <v>32</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>32</v>
+      </c>
+      <c r="Z29">
+        <v>0.9</v>
+      </c>
+      <c r="AA29">
+        <v>0.01</v>
+      </c>
+      <c r="AB29">
+        <v>32</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>0.3</v>
+      </c>
+      <c r="AE29">
+        <v>0.95</v>
+      </c>
+      <c r="AF29">
+        <v>0.001</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>0.75</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>8</v>
+      </c>
+      <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AN29">
+        <v>-2</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30">
+        <v>9.384997701644897</v>
+      </c>
+      <c r="B30">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C30">
+        <v>3.67</v>
+      </c>
+      <c r="D30">
+        <v>6.96</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30">
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30">
+        <v>41</v>
+      </c>
+      <c r="P30">
+        <v>215</v>
+      </c>
+      <c r="Q30">
+        <v>42</v>
+      </c>
+      <c r="R30">
+        <v>42</v>
+      </c>
+      <c r="S30">
+        <v>32</v>
+      </c>
+      <c r="T30">
+        <v>32</v>
+      </c>
+      <c r="U30">
+        <v>32</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>32</v>
+      </c>
+      <c r="Z30">
+        <v>0.9</v>
+      </c>
+      <c r="AA30">
+        <v>0.01</v>
+      </c>
+      <c r="AB30">
+        <v>32</v>
+      </c>
+      <c r="AC30">
+        <v>10</v>
+      </c>
+      <c r="AD30">
+        <v>0.3</v>
+      </c>
+      <c r="AE30">
+        <v>0.95</v>
+      </c>
+      <c r="AF30">
+        <v>0.001</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>0.75</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>8</v>
+      </c>
+      <c r="AM30">
+        <v>5</v>
+      </c>
+      <c r="AN30">
+        <v>-2</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31">
+        <v>9.702756790320079</v>
+      </c>
+      <c r="B31">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="C31">
+        <v>3.55</v>
+      </c>
+      <c r="D31">
+        <v>6.83</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31">
+        <v>128</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31">
+        <v>41</v>
+      </c>
+      <c r="P31">
+        <v>215</v>
+      </c>
+      <c r="Q31">
+        <v>42</v>
+      </c>
+      <c r="R31">
+        <v>42</v>
+      </c>
+      <c r="S31">
+        <v>32</v>
+      </c>
+      <c r="T31">
+        <v>32</v>
+      </c>
+      <c r="U31">
+        <v>32</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>32</v>
+      </c>
+      <c r="Z31">
+        <v>0.9</v>
+      </c>
+      <c r="AA31">
+        <v>0.01</v>
+      </c>
+      <c r="AB31">
+        <v>32</v>
+      </c>
+      <c r="AC31">
+        <v>10</v>
+      </c>
+      <c r="AD31">
+        <v>0.3</v>
+      </c>
+      <c r="AE31">
+        <v>0.95</v>
+      </c>
+      <c r="AF31">
+        <v>0.001</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>0.75</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>8</v>
+      </c>
+      <c r="AM31">
+        <v>5</v>
+      </c>
+      <c r="AN31">
+        <v>-2</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32">
+        <v>9.035989149411519</v>
+      </c>
+      <c r="B32">
+        <v>0.2929292929292929</v>
+      </c>
+      <c r="C32">
+        <v>3.56</v>
+      </c>
+      <c r="D32">
+        <v>6.91</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>128</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32">
+        <v>41</v>
+      </c>
+      <c r="P32">
+        <v>215</v>
+      </c>
+      <c r="Q32">
+        <v>42</v>
+      </c>
+      <c r="R32">
+        <v>42</v>
+      </c>
+      <c r="S32">
+        <v>32</v>
+      </c>
+      <c r="T32">
+        <v>32</v>
+      </c>
+      <c r="U32">
+        <v>32</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>32</v>
+      </c>
+      <c r="Z32">
+        <v>0.9</v>
+      </c>
+      <c r="AA32">
+        <v>0.01</v>
+      </c>
+      <c r="AB32">
+        <v>32</v>
+      </c>
+      <c r="AC32">
+        <v>10</v>
+      </c>
+      <c r="AD32">
+        <v>0.3</v>
+      </c>
+      <c r="AE32">
+        <v>0.95</v>
+      </c>
+      <c r="AF32">
+        <v>0.001</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>0.75</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>8</v>
+      </c>
+      <c r="AM32">
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <v>-10</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
+      <c r="A33">
+        <v>9.421159732341767</v>
+      </c>
+      <c r="B33">
+        <v>0.2929292929292929</v>
+      </c>
+      <c r="C33">
+        <v>3.61</v>
+      </c>
+      <c r="D33">
+        <v>6.75</v>
+      </c>
+      <c r="E33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>128</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33">
+        <v>41</v>
+      </c>
+      <c r="P33">
+        <v>215</v>
+      </c>
+      <c r="Q33">
+        <v>42</v>
+      </c>
+      <c r="R33">
+        <v>42</v>
+      </c>
+      <c r="S33">
+        <v>32</v>
+      </c>
+      <c r="T33">
+        <v>32</v>
+      </c>
+      <c r="U33">
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>32</v>
+      </c>
+      <c r="Z33">
+        <v>0.9</v>
+      </c>
+      <c r="AA33">
+        <v>0.01</v>
+      </c>
+      <c r="AB33">
+        <v>32</v>
+      </c>
+      <c r="AC33">
+        <v>10</v>
+      </c>
+      <c r="AD33">
+        <v>0.3</v>
+      </c>
+      <c r="AE33">
+        <v>0.95</v>
+      </c>
+      <c r="AF33">
+        <v>0.001</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>0.75</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>8</v>
+      </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <v>-10</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
+      <c r="A34">
+        <v>8.906918287277222</v>
+      </c>
+      <c r="B34">
+        <v>0.2626262626262627</v>
+      </c>
+      <c r="C34">
+        <v>3.67</v>
+      </c>
+      <c r="D34">
+        <v>6.86</v>
+      </c>
+      <c r="E34">
+        <v>500</v>
+      </c>
+      <c r="F34">
+        <v>128</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34">
+        <v>41</v>
+      </c>
+      <c r="P34">
+        <v>215</v>
+      </c>
+      <c r="Q34">
+        <v>42</v>
+      </c>
+      <c r="R34">
+        <v>42</v>
+      </c>
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>32</v>
+      </c>
+      <c r="U34">
+        <v>32</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>32</v>
+      </c>
+      <c r="Z34">
+        <v>0.9</v>
+      </c>
+      <c r="AA34">
+        <v>0.01</v>
+      </c>
+      <c r="AB34">
+        <v>32</v>
+      </c>
+      <c r="AC34">
+        <v>10</v>
+      </c>
+      <c r="AD34">
+        <v>0.3</v>
+      </c>
+      <c r="AE34">
+        <v>0.95</v>
+      </c>
+      <c r="AF34">
+        <v>0.001</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>0.75</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>8</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>-10</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/run-data.xlsx
+++ b/run-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>total_time_taken(m)</t>
   </si>
@@ -142,10 +142,10 @@
     <t>O_data</t>
   </si>
   <si>
-    <t>nervenet</t>
+    <t>deepmind</t>
   </si>
   <si>
-    <t>toy2</t>
+    <t>very easy</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP34"/>
+  <dimension ref="A1:AP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,16 +639,16 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2">
-        <v>9.770392139752706</v>
+        <v>12.24617656866709</v>
       </c>
       <c r="B2">
-        <v>0.2525252525252525</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C2">
-        <v>3.52</v>
+        <v>5.68</v>
       </c>
       <c r="D2">
-        <v>6.97</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -663,7 +663,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -672,34 +672,34 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
         <v>42</v>
       </c>
       <c r="O2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P2">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z2">
         <v>0.9</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="b">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="AN2">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO2">
         <v>1</v>
@@ -767,16 +767,16 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3">
-        <v>9.542035957177481</v>
+        <v>12.01469527482987</v>
       </c>
       <c r="B3">
-        <v>0.2828282828282828</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C3">
-        <v>3.55</v>
+        <v>5.54</v>
       </c>
       <c r="D3">
-        <v>7.06</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -791,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
       <c r="O3">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P3">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q3">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R3">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S3">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T3">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z3">
         <v>0.9</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="b">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="AN3">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -895,16 +895,16 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4">
-        <v>9.385571563243866</v>
+        <v>12.26323095957438</v>
       </c>
       <c r="B4">
-        <v>0.3535353535353535</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="C4">
-        <v>3.67</v>
+        <v>5.59</v>
       </c>
       <c r="D4">
-        <v>6.76</v>
+        <v>9.9</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -919,7 +919,7 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -928,34 +928,34 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
         <v>42</v>
       </c>
       <c r="O4">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P4">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q4">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R4">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S4">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T4">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z4">
         <v>0.9</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="b">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="AN4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1023,16 +1023,16 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5">
-        <v>9.431532001495361</v>
+        <v>12.10395679871241</v>
       </c>
       <c r="B5">
-        <v>0.3838383838383838</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C5">
-        <v>3.66</v>
+        <v>5.48</v>
       </c>
       <c r="D5">
-        <v>6.88</v>
+        <v>9.92</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -1047,7 +1047,7 @@
         <v>100</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1056,34 +1056,34 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
       </c>
       <c r="O5">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P5">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q5">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R5">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z5">
         <v>0.9</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="b">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="AM5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN5">
         <v>-5</v>
@@ -1151,16 +1151,16 @@
     </row>
     <row r="6" spans="1:42">
       <c r="A6">
-        <v>9.954400626818339</v>
+        <v>12.34010874430339</v>
       </c>
       <c r="B6">
-        <v>0.3232323232323233</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C6">
-        <v>3.61</v>
+        <v>5.59</v>
       </c>
       <c r="D6">
-        <v>6.87</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1175,7 +1175,7 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1184,34 +1184,34 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
         <v>42</v>
       </c>
       <c r="O6">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P6">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q6">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R6">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z6">
         <v>0.9</v>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="b">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="AM6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN6">
         <v>-5</v>
@@ -1279,16 +1279,16 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7">
-        <v>9.700363119443258</v>
+        <v>12.23598714272181</v>
       </c>
       <c r="B7">
-        <v>0.3737373737373738</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C7">
-        <v>3.67</v>
+        <v>5.68</v>
       </c>
       <c r="D7">
-        <v>6.62</v>
+        <v>9.92</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1303,7 +1303,7 @@
         <v>100</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1312,34 +1312,34 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
       </c>
       <c r="O7">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P7">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q7">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R7">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z7">
         <v>0.9</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="b">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="AM7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN7">
         <v>-5</v>
@@ -1407,16 +1407,16 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8">
-        <v>9.356349666913351</v>
+        <v>12.10069883664449</v>
       </c>
       <c r="B8">
-        <v>0.3737373737373738</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>5.68</v>
       </c>
       <c r="D8">
-        <v>6.62</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1440,34 +1440,34 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
         <v>42</v>
       </c>
       <c r="O8">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P8">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q8">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R8">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S8">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T8">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z8">
         <v>0.9</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="b">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="AN8">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9">
-        <v>9.457663134733837</v>
+        <v>12.27342040538788</v>
       </c>
       <c r="B9">
-        <v>0.2727272727272727</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C9">
-        <v>3.71</v>
+        <v>5.69</v>
       </c>
       <c r="D9">
-        <v>7.08</v>
+        <v>9.92</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -1559,7 +1559,7 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1568,34 +1568,34 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
         <v>42</v>
       </c>
       <c r="O9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P9">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R9">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z9">
         <v>0.9</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="b">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="AN9">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10">
-        <v>9.457795087496439</v>
+        <v>12.51012093226115</v>
       </c>
       <c r="B10">
-        <v>0.303030303030303</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C10">
-        <v>3.65</v>
+        <v>5.55</v>
       </c>
       <c r="D10">
-        <v>7.03</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1687,7 +1687,7 @@
         <v>100</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -1696,34 +1696,34 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
         <v>42</v>
       </c>
       <c r="O10">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P10">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R10">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S10">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T10">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z10">
         <v>0.9</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="b">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="AN10">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11">
-        <v>9.471425342559815</v>
+        <v>12.27526547511419</v>
       </c>
       <c r="B11">
-        <v>0.3636363636363636</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="C11">
-        <v>3.61</v>
+        <v>5.48</v>
       </c>
       <c r="D11">
-        <v>6.77</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1815,7 +1815,7 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1824,34 +1824,34 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N11" t="s">
         <v>42</v>
       </c>
       <c r="O11">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P11">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q11">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R11">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z11">
         <v>0.9</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="b">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>8</v>
       </c>
       <c r="AM11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN11">
         <v>-5</v>
@@ -1919,16 +1919,16 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12">
-        <v>9.724415079752605</v>
+        <v>13.27175084749858</v>
       </c>
       <c r="B12">
-        <v>0.3434343434343434</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="C12">
-        <v>3.58</v>
+        <v>5.59</v>
       </c>
       <c r="D12">
-        <v>6.67</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1943,7 +1943,7 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1952,34 +1952,34 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
       </c>
       <c r="O12">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P12">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q12">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R12">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S12">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T12">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z12">
         <v>0.9</v>
@@ -2024,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK12" t="b">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="AM12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN12">
         <v>-5</v>
@@ -2047,16 +2047,16 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13">
-        <v>9.51093635559082</v>
+        <v>11.95197977224986</v>
       </c>
       <c r="B13">
-        <v>0.2222222222222222</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C13">
-        <v>3.74</v>
+        <v>5.49</v>
       </c>
       <c r="D13">
-        <v>7.35</v>
+        <v>9.91</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2071,7 +2071,7 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -2080,34 +2080,34 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N13" t="s">
         <v>42</v>
       </c>
       <c r="O13">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P13">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q13">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R13">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S13">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T13">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U13">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z13">
         <v>0.9</v>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK13" t="b">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>8</v>
       </c>
       <c r="AM13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN13">
         <v>-5</v>
@@ -2175,16 +2175,16 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14">
-        <v>9.656247814496359</v>
+        <v>12.47787356376648</v>
       </c>
       <c r="B14">
-        <v>0.2626262626262627</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C14">
-        <v>3.66</v>
+        <v>5.58</v>
       </c>
       <c r="D14">
-        <v>6.84</v>
+        <v>9.82</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2199,7 +2199,7 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -2208,34 +2208,34 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
         <v>42</v>
       </c>
       <c r="O14">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P14">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q14">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R14">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S14">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T14">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U14">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z14">
         <v>0.9</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK14" t="b">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>8</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN14">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -2303,16 +2303,16 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15">
-        <v>9.345927798748017</v>
+        <v>12.04750768343608</v>
       </c>
       <c r="B15">
-        <v>0.2222222222222222</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C15">
-        <v>3.59</v>
+        <v>5.36</v>
       </c>
       <c r="D15">
-        <v>7.14</v>
+        <v>9.93</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2327,7 +2327,7 @@
         <v>100</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -2336,34 +2336,34 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
         <v>42</v>
       </c>
       <c r="O15">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P15">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q15">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R15">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S15">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T15">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U15">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z15">
         <v>0.9</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK15" t="b">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>8</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN15">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -2431,16 +2431,16 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16">
-        <v>9.439344414075215</v>
+        <v>11.3777316848437</v>
       </c>
       <c r="B16">
-        <v>0.3131313131313131</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C16">
-        <v>3.52</v>
+        <v>5.51</v>
       </c>
       <c r="D16">
-        <v>6.82</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2455,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -2464,34 +2464,34 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16" t="s">
         <v>42</v>
       </c>
       <c r="O16">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P16">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R16">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S16">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T16">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U16">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z16">
         <v>0.9</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK16" t="b">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>8</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN16">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -2559,16 +2559,16 @@
     </row>
     <row r="17" spans="1:42">
       <c r="A17">
-        <v>9.553007423877716</v>
+        <v>12.36442656914393</v>
       </c>
       <c r="B17">
-        <v>0.3232323232323233</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="C17">
-        <v>3.64</v>
+        <v>5.68</v>
       </c>
       <c r="D17">
-        <v>6.94</v>
+        <v>9.92</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2583,7 +2583,7 @@
         <v>100</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -2592,34 +2592,34 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
         <v>42</v>
       </c>
       <c r="O17">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P17">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q17">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R17">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S17">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T17">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z17">
         <v>0.9</v>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK17" t="b">
         <v>0</v>
@@ -2673,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="AM17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN17">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="18" spans="1:42">
       <c r="A18">
-        <v>9.764042945702871</v>
+        <v>12.11949853102366</v>
       </c>
       <c r="B18">
-        <v>0.2626262626262627</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C18">
-        <v>3.58</v>
+        <v>5.49</v>
       </c>
       <c r="D18">
-        <v>7.03</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2711,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -2720,34 +2720,34 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
       </c>
       <c r="O18">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P18">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R18">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S18">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T18">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z18">
         <v>0.9</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK18" t="b">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>8</v>
       </c>
       <c r="AM18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN18">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO18">
         <v>1</v>
@@ -2815,16 +2815,16 @@
     </row>
     <row r="19" spans="1:42">
       <c r="A19">
-        <v>9.728737215201059</v>
+        <v>12.18858055273692</v>
       </c>
       <c r="B19">
-        <v>0.2727272727272727</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C19">
-        <v>3.63</v>
+        <v>5.55</v>
       </c>
       <c r="D19">
-        <v>6.9</v>
+        <v>9.23</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -2848,34 +2848,34 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N19" t="s">
         <v>42</v>
       </c>
       <c r="O19">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P19">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R19">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S19">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T19">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z19">
         <v>0.9</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK19" t="b">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>8</v>
       </c>
       <c r="AM19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN19">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO19">
         <v>1</v>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="20" spans="1:42">
       <c r="A20">
-        <v>9.822686127821605</v>
+        <v>12.49667356411616</v>
       </c>
       <c r="B20">
-        <v>0.2626262626262627</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="C20">
-        <v>3.54</v>
+        <v>5.49</v>
       </c>
       <c r="D20">
-        <v>7.11</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2967,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2976,34 +2976,34 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20" t="s">
         <v>42</v>
       </c>
       <c r="O20">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P20">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q20">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R20">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S20">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T20">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U20">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="Y20">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z20">
         <v>0.9</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK20" t="b">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>8</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN20">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO20">
         <v>1</v>
@@ -3071,16 +3071,16 @@
     </row>
     <row r="21" spans="1:42">
       <c r="A21">
-        <v>10.11651712656021</v>
+        <v>12.63103100856145</v>
       </c>
       <c r="B21">
-        <v>0.3434343434343434</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="C21">
-        <v>3.52</v>
+        <v>5.56</v>
       </c>
       <c r="D21">
-        <v>6.82</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -3095,7 +3095,7 @@
         <v>100</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -3104,34 +3104,34 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N21" t="s">
         <v>42</v>
       </c>
       <c r="O21">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P21">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q21">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R21">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U21">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z21">
         <v>0.9</v>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK21" t="b">
         <v>0</v>
@@ -3185,10 +3185,10 @@
         <v>8</v>
       </c>
       <c r="AM21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN21">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO21">
         <v>1</v>
@@ -3199,16 +3199,16 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22">
-        <v>9.545294499397277</v>
+        <v>12.52928580443064</v>
       </c>
       <c r="B22">
-        <v>0.3232323232323233</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="C22">
-        <v>3.66</v>
+        <v>5.5</v>
       </c>
       <c r="D22">
-        <v>6.92</v>
+        <v>9.42</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -3223,7 +3223,7 @@
         <v>100</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -3232,34 +3232,34 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N22" t="s">
         <v>42</v>
       </c>
       <c r="O22">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P22">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q22">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R22">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z22">
         <v>0.9</v>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK22" t="b">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="AM22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN22">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO22">
         <v>1</v>
@@ -3327,16 +3327,16 @@
     </row>
     <row r="23" spans="1:42">
       <c r="A23">
-        <v>9.587398576736451</v>
+        <v>12.7977020462354</v>
       </c>
       <c r="B23">
-        <v>0.3232323232323233</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="C23">
-        <v>3.63</v>
+        <v>5.63</v>
       </c>
       <c r="D23">
-        <v>7.07</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -3351,7 +3351,7 @@
         <v>100</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -3360,34 +3360,34 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N23" t="s">
         <v>42</v>
       </c>
       <c r="O23">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P23">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q23">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R23">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U23">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="Y23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z23">
         <v>0.9</v>
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="AJ23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK23" t="b">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>8</v>
       </c>
       <c r="AM23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN23">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO23">
         <v>1</v>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="24" spans="1:42">
       <c r="A24">
-        <v>9.508966739972433</v>
+        <v>12.58777943452199</v>
       </c>
       <c r="B24">
-        <v>0.404040404040404</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C24">
-        <v>3.51</v>
+        <v>5.68</v>
       </c>
       <c r="D24">
-        <v>6.86</v>
+        <v>9.82</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -3479,7 +3479,7 @@
         <v>100</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -3488,34 +3488,34 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N24" t="s">
         <v>42</v>
       </c>
       <c r="O24">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P24">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R24">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U24">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z24">
         <v>0.9</v>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK24" t="b">
         <v>0</v>
@@ -3569,10 +3569,10 @@
         <v>8</v>
       </c>
       <c r="AM24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN24">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO24">
         <v>1</v>
@@ -3583,16 +3583,16 @@
     </row>
     <row r="25" spans="1:42">
       <c r="A25">
-        <v>9.802822570006052</v>
+        <v>12.1280922571818</v>
       </c>
       <c r="B25">
-        <v>0.2828282828282828</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C25">
-        <v>3.73</v>
+        <v>5.62</v>
       </c>
       <c r="D25">
-        <v>6.84</v>
+        <v>9.92</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -3607,7 +3607,7 @@
         <v>100</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -3616,34 +3616,34 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N25" t="s">
         <v>42</v>
       </c>
       <c r="O25">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P25">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R25">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S25">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T25">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z25">
         <v>0.9</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="AJ25">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK25" t="b">
         <v>0</v>
@@ -3697,10 +3697,10 @@
         <v>8</v>
       </c>
       <c r="AM25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN25">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO25">
         <v>1</v>
@@ -3711,16 +3711,16 @@
     </row>
     <row r="26" spans="1:42">
       <c r="A26">
-        <v>9.647055713335673</v>
+        <v>11.95568604866664</v>
       </c>
       <c r="B26">
-        <v>0.2525252525252525</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="C26">
-        <v>3.58</v>
+        <v>5.59</v>
       </c>
       <c r="D26">
-        <v>6.88</v>
+        <v>9.82</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -3735,7 +3735,7 @@
         <v>100</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -3744,34 +3744,34 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
         <v>42</v>
       </c>
       <c r="O26">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P26">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R26">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S26">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T26">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U26">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V26">
         <v>1</v>
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z26">
         <v>0.9</v>
@@ -3816,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK26" t="b">
         <v>0</v>
@@ -3839,16 +3839,16 @@
     </row>
     <row r="27" spans="1:42">
       <c r="A27">
-        <v>9.746423387527466</v>
+        <v>12.22192471424739</v>
       </c>
       <c r="B27">
-        <v>0.3131313131313131</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="C27">
-        <v>3.62</v>
+        <v>5.51</v>
       </c>
       <c r="D27">
-        <v>6.82</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -3863,7 +3863,7 @@
         <v>100</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -3872,34 +3872,34 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
         <v>42</v>
       </c>
       <c r="O27">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P27">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R27">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S27">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T27">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U27">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="Y27">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z27">
         <v>0.9</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="AJ27">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK27" t="b">
         <v>0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="28" spans="1:42">
       <c r="A28">
-        <v>9.620925601323446</v>
+        <v>12.67572813034058</v>
       </c>
       <c r="B28">
-        <v>0.4141414141414141</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C28">
-        <v>3.61</v>
+        <v>5.59</v>
       </c>
       <c r="D28">
-        <v>6.7</v>
+        <v>9.84</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -3991,7 +3991,7 @@
         <v>100</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -4000,34 +4000,34 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N28" t="s">
         <v>42</v>
       </c>
       <c r="O28">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P28">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R28">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S28">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T28">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U28">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="Y28">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z28">
         <v>0.9</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="AJ28">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK28" t="b">
         <v>0</v>
@@ -4095,16 +4095,16 @@
     </row>
     <row r="29" spans="1:42">
       <c r="A29">
-        <v>9.688162469863892</v>
+        <v>12.10164583524068</v>
       </c>
       <c r="B29">
-        <v>0.2828282828282828</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="C29">
-        <v>3.67</v>
+        <v>5.45</v>
       </c>
       <c r="D29">
-        <v>7.03</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -4119,7 +4119,7 @@
         <v>100</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -4128,34 +4128,34 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N29" t="s">
         <v>42</v>
       </c>
       <c r="O29">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P29">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R29">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S29">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T29">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U29">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z29">
         <v>0.9</v>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="AJ29">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK29" t="b">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO29">
         <v>1</v>
@@ -4223,16 +4223,16 @@
     </row>
     <row r="30" spans="1:42">
       <c r="A30">
-        <v>9.384997701644897</v>
+        <v>12.96723215579987</v>
       </c>
       <c r="B30">
-        <v>0.2727272727272727</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="C30">
-        <v>3.67</v>
+        <v>5.53</v>
       </c>
       <c r="D30">
-        <v>6.96</v>
+        <v>9.42</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -4247,7 +4247,7 @@
         <v>100</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -4256,34 +4256,34 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N30" t="s">
         <v>42</v>
       </c>
       <c r="O30">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P30">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R30">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U30">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z30">
         <v>0.9</v>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="AJ30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK30" t="b">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="AN30">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO30">
         <v>1</v>
@@ -4351,16 +4351,16 @@
     </row>
     <row r="31" spans="1:42">
       <c r="A31">
-        <v>9.702756790320079</v>
+        <v>11.78914841413498</v>
       </c>
       <c r="B31">
-        <v>0.3232323232323233</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C31">
-        <v>3.55</v>
+        <v>5.46</v>
       </c>
       <c r="D31">
-        <v>6.83</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -4375,7 +4375,7 @@
         <v>100</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -4384,34 +4384,34 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N31" t="s">
         <v>42</v>
       </c>
       <c r="O31">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P31">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R31">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S31">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T31">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U31">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z31">
         <v>0.9</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK31" t="b">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="AN31">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AO31">
         <v>1</v>
@@ -4479,16 +4479,16 @@
     </row>
     <row r="32" spans="1:42">
       <c r="A32">
-        <v>9.035989149411519</v>
+        <v>12.21961425542831</v>
       </c>
       <c r="B32">
-        <v>0.2929292929292929</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C32">
-        <v>3.56</v>
+        <v>5.53</v>
       </c>
       <c r="D32">
-        <v>6.91</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -4503,7 +4503,7 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -4512,34 +4512,34 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N32" t="s">
         <v>42</v>
       </c>
       <c r="O32">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P32">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R32">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S32">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T32">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U32">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V32">
         <v>1</v>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z32">
         <v>0.9</v>
@@ -4593,10 +4593,10 @@
         <v>8</v>
       </c>
       <c r="AM32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN32">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO32">
         <v>1</v>
@@ -4607,16 +4607,16 @@
     </row>
     <row r="33" spans="1:42">
       <c r="A33">
-        <v>9.421159732341767</v>
+        <v>11.37562064727147</v>
       </c>
       <c r="B33">
-        <v>0.2929292929292929</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C33">
-        <v>3.61</v>
+        <v>5.57</v>
       </c>
       <c r="D33">
-        <v>6.75</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -4631,7 +4631,7 @@
         <v>100</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -4640,34 +4640,34 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N33" t="s">
         <v>42</v>
       </c>
       <c r="O33">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P33">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R33">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S33">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T33">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U33">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="Y33">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z33">
         <v>0.9</v>
@@ -4721,10 +4721,10 @@
         <v>8</v>
       </c>
       <c r="AM33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN33">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AO33">
         <v>1</v>
@@ -4735,16 +4735,16 @@
     </row>
     <row r="34" spans="1:42">
       <c r="A34">
-        <v>8.906918287277222</v>
+        <v>12.66317836840947</v>
       </c>
       <c r="B34">
-        <v>0.2626262626262627</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C34">
-        <v>3.67</v>
+        <v>5.44</v>
       </c>
       <c r="D34">
-        <v>6.86</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -4759,7 +4759,7 @@
         <v>100</v>
       </c>
       <c r="I34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -4768,34 +4768,34 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N34" t="s">
         <v>42</v>
       </c>
       <c r="O34">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P34">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R34">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S34">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T34">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -4807,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z34">
         <v>0.9</v>
@@ -4849,15 +4849,1935 @@
         <v>8</v>
       </c>
       <c r="AM34">
+        <v>5</v>
+      </c>
+      <c r="AN34">
+        <v>-5</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
+      <c r="A35">
+        <v>12.41913084586461</v>
+      </c>
+      <c r="B35">
+        <v>0.0202020202020202</v>
+      </c>
+      <c r="C35">
+        <v>5.53</v>
+      </c>
+      <c r="D35">
+        <v>9.91</v>
+      </c>
+      <c r="E35">
+        <v>500</v>
+      </c>
+      <c r="F35">
+        <v>128</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35">
+        <v>76</v>
+      </c>
+      <c r="P35">
+        <v>305</v>
+      </c>
+      <c r="Q35">
+        <v>83</v>
+      </c>
+      <c r="R35">
+        <v>83</v>
+      </c>
+      <c r="S35">
+        <v>64</v>
+      </c>
+      <c r="T35">
+        <v>64</v>
+      </c>
+      <c r="U35">
+        <v>16</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
         <v>2</v>
       </c>
-      <c r="AN34">
-        <v>-10</v>
-      </c>
-      <c r="AO34">
-        <v>1</v>
-      </c>
-      <c r="AP34" t="s">
+      <c r="X35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>64</v>
+      </c>
+      <c r="Z35">
+        <v>0.9</v>
+      </c>
+      <c r="AA35">
+        <v>0.01</v>
+      </c>
+      <c r="AB35">
+        <v>32</v>
+      </c>
+      <c r="AC35">
+        <v>10</v>
+      </c>
+      <c r="AD35">
+        <v>0.3</v>
+      </c>
+      <c r="AE35">
+        <v>0.95</v>
+      </c>
+      <c r="AF35">
+        <v>0.001</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>0.75</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>8</v>
+      </c>
+      <c r="AM35">
+        <v>5</v>
+      </c>
+      <c r="AN35">
+        <v>-5</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
+      <c r="A36">
+        <v>12.63176237344742</v>
+      </c>
+      <c r="B36">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C36">
+        <v>5.5</v>
+      </c>
+      <c r="D36">
+        <v>9.66</v>
+      </c>
+      <c r="E36">
+        <v>500</v>
+      </c>
+      <c r="F36">
+        <v>128</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36">
+        <v>76</v>
+      </c>
+      <c r="P36">
+        <v>305</v>
+      </c>
+      <c r="Q36">
+        <v>83</v>
+      </c>
+      <c r="R36">
+        <v>83</v>
+      </c>
+      <c r="S36">
+        <v>64</v>
+      </c>
+      <c r="T36">
+        <v>64</v>
+      </c>
+      <c r="U36">
+        <v>16</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>64</v>
+      </c>
+      <c r="Z36">
+        <v>0.9</v>
+      </c>
+      <c r="AA36">
+        <v>0.01</v>
+      </c>
+      <c r="AB36">
+        <v>32</v>
+      </c>
+      <c r="AC36">
+        <v>10</v>
+      </c>
+      <c r="AD36">
+        <v>0.3</v>
+      </c>
+      <c r="AE36">
+        <v>0.95</v>
+      </c>
+      <c r="AF36">
+        <v>0.001</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>0.75</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>8</v>
+      </c>
+      <c r="AM36">
+        <v>5</v>
+      </c>
+      <c r="AN36">
+        <v>-5</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
+      <c r="A37">
+        <v>12.58079861799876</v>
+      </c>
+      <c r="B37">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="C37">
+        <v>5.49</v>
+      </c>
+      <c r="D37">
+        <v>8.76</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>128</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37">
+        <v>76</v>
+      </c>
+      <c r="P37">
+        <v>305</v>
+      </c>
+      <c r="Q37">
+        <v>83</v>
+      </c>
+      <c r="R37">
+        <v>83</v>
+      </c>
+      <c r="S37">
+        <v>64</v>
+      </c>
+      <c r="T37">
+        <v>64</v>
+      </c>
+      <c r="U37">
+        <v>16</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>64</v>
+      </c>
+      <c r="Z37">
+        <v>0.9</v>
+      </c>
+      <c r="AA37">
+        <v>0.01</v>
+      </c>
+      <c r="AB37">
+        <v>32</v>
+      </c>
+      <c r="AC37">
+        <v>10</v>
+      </c>
+      <c r="AD37">
+        <v>0.3</v>
+      </c>
+      <c r="AE37">
+        <v>0.95</v>
+      </c>
+      <c r="AF37">
+        <v>0.001</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>0.75</v>
+      </c>
+      <c r="AK37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>8</v>
+      </c>
+      <c r="AM37">
+        <v>5</v>
+      </c>
+      <c r="AN37">
+        <v>-5</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
+      <c r="A38">
+        <v>12.36494237979253</v>
+      </c>
+      <c r="B38">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="C38">
+        <v>5.41</v>
+      </c>
+      <c r="D38">
+        <v>9.82</v>
+      </c>
+      <c r="E38">
+        <v>500</v>
+      </c>
+      <c r="F38">
+        <v>128</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38">
+        <v>76</v>
+      </c>
+      <c r="P38">
+        <v>305</v>
+      </c>
+      <c r="Q38">
+        <v>83</v>
+      </c>
+      <c r="R38">
+        <v>83</v>
+      </c>
+      <c r="S38">
+        <v>64</v>
+      </c>
+      <c r="T38">
+        <v>64</v>
+      </c>
+      <c r="U38">
+        <v>16</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>64</v>
+      </c>
+      <c r="Z38">
+        <v>0.9</v>
+      </c>
+      <c r="AA38">
+        <v>0.01</v>
+      </c>
+      <c r="AB38">
+        <v>32</v>
+      </c>
+      <c r="AC38">
+        <v>10</v>
+      </c>
+      <c r="AD38">
+        <v>0.3</v>
+      </c>
+      <c r="AE38">
+        <v>0.95</v>
+      </c>
+      <c r="AF38">
+        <v>0.001</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>0.75</v>
+      </c>
+      <c r="AK38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>8</v>
+      </c>
+      <c r="AM38">
+        <v>5</v>
+      </c>
+      <c r="AN38">
+        <v>-5</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="A39">
+        <v>12.37145830790202</v>
+      </c>
+      <c r="B39">
+        <v>0.1313131313131313</v>
+      </c>
+      <c r="C39">
+        <v>5.57</v>
+      </c>
+      <c r="D39">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+      <c r="F39">
+        <v>128</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>8</v>
+      </c>
+      <c r="N39" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39">
+        <v>76</v>
+      </c>
+      <c r="P39">
+        <v>305</v>
+      </c>
+      <c r="Q39">
+        <v>83</v>
+      </c>
+      <c r="R39">
+        <v>83</v>
+      </c>
+      <c r="S39">
+        <v>64</v>
+      </c>
+      <c r="T39">
+        <v>64</v>
+      </c>
+      <c r="U39">
+        <v>16</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>64</v>
+      </c>
+      <c r="Z39">
+        <v>0.9</v>
+      </c>
+      <c r="AA39">
+        <v>0.01</v>
+      </c>
+      <c r="AB39">
+        <v>32</v>
+      </c>
+      <c r="AC39">
+        <v>10</v>
+      </c>
+      <c r="AD39">
+        <v>0.3</v>
+      </c>
+      <c r="AE39">
+        <v>0.95</v>
+      </c>
+      <c r="AF39">
+        <v>0.001</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>0.75</v>
+      </c>
+      <c r="AK39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>8</v>
+      </c>
+      <c r="AM39">
+        <v>5</v>
+      </c>
+      <c r="AN39">
+        <v>-5</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
+      <c r="A40">
+        <v>12.28332725365957</v>
+      </c>
+      <c r="B40">
+        <v>0.0505050505050505</v>
+      </c>
+      <c r="C40">
+        <v>5.54</v>
+      </c>
+      <c r="D40">
+        <v>9.82</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>128</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40">
+        <v>76</v>
+      </c>
+      <c r="P40">
+        <v>305</v>
+      </c>
+      <c r="Q40">
+        <v>83</v>
+      </c>
+      <c r="R40">
+        <v>83</v>
+      </c>
+      <c r="S40">
+        <v>64</v>
+      </c>
+      <c r="T40">
+        <v>64</v>
+      </c>
+      <c r="U40">
+        <v>16</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>64</v>
+      </c>
+      <c r="Z40">
+        <v>0.9</v>
+      </c>
+      <c r="AA40">
+        <v>0.01</v>
+      </c>
+      <c r="AB40">
+        <v>32</v>
+      </c>
+      <c r="AC40">
+        <v>10</v>
+      </c>
+      <c r="AD40">
+        <v>0.3</v>
+      </c>
+      <c r="AE40">
+        <v>0.95</v>
+      </c>
+      <c r="AF40">
+        <v>0.001</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <v>0.75</v>
+      </c>
+      <c r="AK40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>8</v>
+      </c>
+      <c r="AM40">
+        <v>5</v>
+      </c>
+      <c r="AN40">
+        <v>-5</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="A41">
+        <v>11.96027423143387</v>
+      </c>
+      <c r="B41">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="C41">
+        <v>5.62</v>
+      </c>
+      <c r="D41">
+        <v>9.92</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>128</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41">
+        <v>76</v>
+      </c>
+      <c r="P41">
+        <v>305</v>
+      </c>
+      <c r="Q41">
+        <v>83</v>
+      </c>
+      <c r="R41">
+        <v>83</v>
+      </c>
+      <c r="S41">
+        <v>64</v>
+      </c>
+      <c r="T41">
+        <v>64</v>
+      </c>
+      <c r="U41">
+        <v>16</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>64</v>
+      </c>
+      <c r="Z41">
+        <v>0.9</v>
+      </c>
+      <c r="AA41">
+        <v>0.01</v>
+      </c>
+      <c r="AB41">
+        <v>32</v>
+      </c>
+      <c r="AC41">
+        <v>10</v>
+      </c>
+      <c r="AD41">
+        <v>0.3</v>
+      </c>
+      <c r="AE41">
+        <v>0.95</v>
+      </c>
+      <c r="AF41">
+        <v>0.001</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>0.75</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>8</v>
+      </c>
+      <c r="AM41">
+        <v>5</v>
+      </c>
+      <c r="AN41">
+        <v>-5</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42">
+        <v>11.89450008869171</v>
+      </c>
+      <c r="B42">
+        <v>0.04040404040404041</v>
+      </c>
+      <c r="C42">
+        <v>5.56</v>
+      </c>
+      <c r="D42">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E42">
+        <v>500</v>
+      </c>
+      <c r="F42">
+        <v>128</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>8</v>
+      </c>
+      <c r="N42" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42">
+        <v>76</v>
+      </c>
+      <c r="P42">
+        <v>305</v>
+      </c>
+      <c r="Q42">
+        <v>83</v>
+      </c>
+      <c r="R42">
+        <v>83</v>
+      </c>
+      <c r="S42">
+        <v>64</v>
+      </c>
+      <c r="T42">
+        <v>64</v>
+      </c>
+      <c r="U42">
+        <v>16</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
+      </c>
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>64</v>
+      </c>
+      <c r="Z42">
+        <v>0.9</v>
+      </c>
+      <c r="AA42">
+        <v>0.01</v>
+      </c>
+      <c r="AB42">
+        <v>32</v>
+      </c>
+      <c r="AC42">
+        <v>10</v>
+      </c>
+      <c r="AD42">
+        <v>0.3</v>
+      </c>
+      <c r="AE42">
+        <v>0.95</v>
+      </c>
+      <c r="AF42">
+        <v>0.001</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>8</v>
+      </c>
+      <c r="AM42">
+        <v>5</v>
+      </c>
+      <c r="AN42">
+        <v>-5</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42">
+      <c r="A43">
+        <v>11.78281536897024</v>
+      </c>
+      <c r="B43">
+        <v>0.04040404040404041</v>
+      </c>
+      <c r="C43">
+        <v>5.35</v>
+      </c>
+      <c r="D43">
+        <v>9.84</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <v>128</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43">
+        <v>76</v>
+      </c>
+      <c r="P43">
+        <v>305</v>
+      </c>
+      <c r="Q43">
+        <v>83</v>
+      </c>
+      <c r="R43">
+        <v>83</v>
+      </c>
+      <c r="S43">
+        <v>64</v>
+      </c>
+      <c r="T43">
+        <v>64</v>
+      </c>
+      <c r="U43">
+        <v>16</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+      <c r="X43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>64</v>
+      </c>
+      <c r="Z43">
+        <v>0.9</v>
+      </c>
+      <c r="AA43">
+        <v>0.01</v>
+      </c>
+      <c r="AB43">
+        <v>32</v>
+      </c>
+      <c r="AC43">
+        <v>10</v>
+      </c>
+      <c r="AD43">
+        <v>0.3</v>
+      </c>
+      <c r="AE43">
+        <v>0.95</v>
+      </c>
+      <c r="AF43">
+        <v>0.001</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>8</v>
+      </c>
+      <c r="AM43">
+        <v>5</v>
+      </c>
+      <c r="AN43">
+        <v>-5</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42">
+      <c r="A44">
+        <v>11.97476884524028</v>
+      </c>
+      <c r="B44">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
+      <c r="D44">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>128</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>76</v>
+      </c>
+      <c r="P44">
+        <v>305</v>
+      </c>
+      <c r="Q44">
+        <v>83</v>
+      </c>
+      <c r="R44">
+        <v>83</v>
+      </c>
+      <c r="S44">
+        <v>64</v>
+      </c>
+      <c r="T44">
+        <v>64</v>
+      </c>
+      <c r="U44">
+        <v>16</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>2</v>
+      </c>
+      <c r="X44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>64</v>
+      </c>
+      <c r="Z44">
+        <v>0.9</v>
+      </c>
+      <c r="AA44">
+        <v>0.01</v>
+      </c>
+      <c r="AB44">
+        <v>32</v>
+      </c>
+      <c r="AC44">
+        <v>10</v>
+      </c>
+      <c r="AD44">
+        <v>0.3</v>
+      </c>
+      <c r="AE44">
+        <v>0.95</v>
+      </c>
+      <c r="AF44">
+        <v>0.001</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>8</v>
+      </c>
+      <c r="AM44">
+        <v>5</v>
+      </c>
+      <c r="AN44">
+        <v>-5</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42">
+      <c r="A45">
+        <v>12.31454377571742</v>
+      </c>
+      <c r="B45">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="C45">
+        <v>5.68</v>
+      </c>
+      <c r="D45">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>128</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>6</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="N45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45">
+        <v>76</v>
+      </c>
+      <c r="P45">
+        <v>305</v>
+      </c>
+      <c r="Q45">
+        <v>83</v>
+      </c>
+      <c r="R45">
+        <v>83</v>
+      </c>
+      <c r="S45">
+        <v>64</v>
+      </c>
+      <c r="T45">
+        <v>64</v>
+      </c>
+      <c r="U45">
+        <v>16</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>2</v>
+      </c>
+      <c r="X45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>64</v>
+      </c>
+      <c r="Z45">
+        <v>0.9</v>
+      </c>
+      <c r="AA45">
+        <v>0.01</v>
+      </c>
+      <c r="AB45">
+        <v>32</v>
+      </c>
+      <c r="AC45">
+        <v>10</v>
+      </c>
+      <c r="AD45">
+        <v>0.3</v>
+      </c>
+      <c r="AE45">
+        <v>0.95</v>
+      </c>
+      <c r="AF45">
+        <v>0.001</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>8</v>
+      </c>
+      <c r="AM45">
+        <v>5</v>
+      </c>
+      <c r="AN45">
+        <v>-5</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42">
+      <c r="A46">
+        <v>11.84381895462672</v>
+      </c>
+      <c r="B46">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="C46">
+        <v>5.53</v>
+      </c>
+      <c r="D46">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="F46">
+        <v>128</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>6</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46">
+        <v>76</v>
+      </c>
+      <c r="P46">
+        <v>305</v>
+      </c>
+      <c r="Q46">
+        <v>83</v>
+      </c>
+      <c r="R46">
+        <v>83</v>
+      </c>
+      <c r="S46">
+        <v>64</v>
+      </c>
+      <c r="T46">
+        <v>64</v>
+      </c>
+      <c r="U46">
+        <v>16</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="X46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>64</v>
+      </c>
+      <c r="Z46">
+        <v>0.9</v>
+      </c>
+      <c r="AA46">
+        <v>0.01</v>
+      </c>
+      <c r="AB46">
+        <v>32</v>
+      </c>
+      <c r="AC46">
+        <v>10</v>
+      </c>
+      <c r="AD46">
+        <v>0.3</v>
+      </c>
+      <c r="AE46">
+        <v>0.95</v>
+      </c>
+      <c r="AF46">
+        <v>0.001</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>8</v>
+      </c>
+      <c r="AM46">
+        <v>5</v>
+      </c>
+      <c r="AN46">
+        <v>-5</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42">
+      <c r="A47">
+        <v>11.98603248596191</v>
+      </c>
+      <c r="B47">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="C47">
+        <v>5.51</v>
+      </c>
+      <c r="D47">
+        <v>9.76</v>
+      </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>128</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="N47" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47">
+        <v>76</v>
+      </c>
+      <c r="P47">
+        <v>305</v>
+      </c>
+      <c r="Q47">
+        <v>83</v>
+      </c>
+      <c r="R47">
+        <v>83</v>
+      </c>
+      <c r="S47">
+        <v>64</v>
+      </c>
+      <c r="T47">
+        <v>64</v>
+      </c>
+      <c r="U47">
+        <v>16</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>2</v>
+      </c>
+      <c r="X47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>64</v>
+      </c>
+      <c r="Z47">
+        <v>0.9</v>
+      </c>
+      <c r="AA47">
+        <v>0.01</v>
+      </c>
+      <c r="AB47">
+        <v>32</v>
+      </c>
+      <c r="AC47">
+        <v>10</v>
+      </c>
+      <c r="AD47">
+        <v>0.3</v>
+      </c>
+      <c r="AE47">
+        <v>0.95</v>
+      </c>
+      <c r="AF47">
+        <v>0.001</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>8</v>
+      </c>
+      <c r="AM47">
+        <v>5</v>
+      </c>
+      <c r="AN47">
+        <v>-5</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42">
+      <c r="A48">
+        <v>12.60084502299627</v>
+      </c>
+      <c r="B48">
+        <v>0.04040404040404041</v>
+      </c>
+      <c r="C48">
+        <v>5.54</v>
+      </c>
+      <c r="D48">
+        <v>9.81</v>
+      </c>
+      <c r="E48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>128</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>8</v>
+      </c>
+      <c r="N48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48">
+        <v>76</v>
+      </c>
+      <c r="P48">
+        <v>305</v>
+      </c>
+      <c r="Q48">
+        <v>83</v>
+      </c>
+      <c r="R48">
+        <v>83</v>
+      </c>
+      <c r="S48">
+        <v>64</v>
+      </c>
+      <c r="T48">
+        <v>64</v>
+      </c>
+      <c r="U48">
+        <v>16</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>2</v>
+      </c>
+      <c r="X48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>64</v>
+      </c>
+      <c r="Z48">
+        <v>0.9</v>
+      </c>
+      <c r="AA48">
+        <v>0.01</v>
+      </c>
+      <c r="AB48">
+        <v>32</v>
+      </c>
+      <c r="AC48">
+        <v>10</v>
+      </c>
+      <c r="AD48">
+        <v>0.3</v>
+      </c>
+      <c r="AE48">
+        <v>0.95</v>
+      </c>
+      <c r="AF48">
+        <v>0.001</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>8</v>
+      </c>
+      <c r="AM48">
+        <v>5</v>
+      </c>
+      <c r="AN48">
+        <v>-5</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
+      <c r="A49">
+        <v>12.19067494074504</v>
+      </c>
+      <c r="B49">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="C49">
+        <v>5.58</v>
+      </c>
+      <c r="D49">
+        <v>9.92</v>
+      </c>
+      <c r="E49">
+        <v>500</v>
+      </c>
+      <c r="F49">
+        <v>128</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>8</v>
+      </c>
+      <c r="N49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49">
+        <v>76</v>
+      </c>
+      <c r="P49">
+        <v>305</v>
+      </c>
+      <c r="Q49">
+        <v>83</v>
+      </c>
+      <c r="R49">
+        <v>83</v>
+      </c>
+      <c r="S49">
+        <v>64</v>
+      </c>
+      <c r="T49">
+        <v>64</v>
+      </c>
+      <c r="U49">
+        <v>16</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>64</v>
+      </c>
+      <c r="Z49">
+        <v>0.9</v>
+      </c>
+      <c r="AA49">
+        <v>0.01</v>
+      </c>
+      <c r="AB49">
+        <v>32</v>
+      </c>
+      <c r="AC49">
+        <v>10</v>
+      </c>
+      <c r="AD49">
+        <v>0.3</v>
+      </c>
+      <c r="AE49">
+        <v>0.95</v>
+      </c>
+      <c r="AF49">
+        <v>0.001</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>8</v>
+      </c>
+      <c r="AM49">
+        <v>5</v>
+      </c>
+      <c r="AN49">
+        <v>-5</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49" t="s">
         <v>43</v>
       </c>
     </row>
